--- a/WZPDCL and BREB Bill calculator.xlsx
+++ b/WZPDCL and BREB Bill calculator.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sksho\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\electric_bill_check\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -107,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -152,6 +152,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -259,27 +265,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,3618 +575,3612 @@
   <dimension ref="A1:M1012"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="12.5703125" style="2"/>
-    <col min="7" max="7" width="5.140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="12.5703125" style="2"/>
+    <col min="1" max="6" width="12.5703125" style="1"/>
+    <col min="7" max="7" width="5.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="3" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>50</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>4.63</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f>IF(E16&lt;=B4,E16,0)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <f t="shared" ref="F4:F10" si="0">CEILING(D4*C4,1)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2">
+      <c r="G4" s="15"/>
+      <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>50</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>4.63</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <f>IF(ROUND(L22/J4,2)&gt;=I4,I4-H4,ROUND(L22/J4,2))</f>
         <v>50</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <f t="shared" ref="M4:M10" si="1">CEILING(K4*J4,1)</f>
         <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>0</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>75</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>5.26</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f>IF(E16&gt;B4,IF(E16&gt;=B5,B5,E16),0)</f>
         <v>75</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>395</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2">
+      <c r="G5" s="15"/>
+      <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>75</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>5.26</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <f>IF(ROUND(L22/J5,2)&gt;I4,IF(ROUND((L22-M4)/J5,2)&lt;=(I5-I4),ROUND((L22-M4)/J5,2),I5-I4),0)</f>
         <v>25</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>76</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>200</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>7.2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f>IF((D5&gt;=B5),IF(E16&gt;B6,(B6-B5),ABS($E$16 - B5)),0)</f>
         <v>125</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2">
+      <c r="G6" s="15"/>
+      <c r="H6" s="1">
         <v>76</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>200</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>7.2</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <f>IF(L22&gt;SUM(M4:M5),IF((L22-SUM(M4:M5))/J6&gt;(I6-I5),I6-I5,ROUND((L22-SUM(M4:M5))/J6,2)),0)</f>
-        <v>71.38</v>
-      </c>
-      <c r="M6" s="2">
+        <v>18.05</v>
+      </c>
+      <c r="M6" s="1">
         <f t="shared" si="1"/>
-        <v>514</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>201</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>300</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>7.59</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f>IF((D6&gt;=(B6-B5)),IF(E16&gt;B7,(B7-B6),ABS($E$16 - B6)),0)</f>
         <v>100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>759</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2">
+      <c r="G7" s="15"/>
+      <c r="H7" s="1">
         <v>201</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>300</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>7.59</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <f>IF(L22&gt;SUM(M4:M6),IF((L22-SUM(M4:M6))/J7&gt;(I7-I6),I7-I6,ROUND((L22-SUM(M4:M6))/J7,2)),0)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>301</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>400</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>8.02</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f>IF((D7&gt;=(B7-B6)),IF(E16&gt;B8,(B8-B7),ABS($E$16 - B7)),0)</f>
         <v>100</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>802</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2">
+      <c r="G8" s="15"/>
+      <c r="H8" s="1">
         <v>301</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>400</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>8.02</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <f>IF(L22&gt;SUM(M4:M7),IF((L22-SUM(M4:M7))/J8&gt;(I8-I7),I8-I7,ROUND((L22-SUM(M4:M7))/J8,2)),0)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>401</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>600</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>12.67</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <f>IF((D8&gt;=(B8-B7)),IF(E16&gt;B9,(B9-B8),ABS($E$16 - B8)),0)</f>
         <v>200</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>2534</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2">
+      <c r="G9" s="15"/>
+      <c r="H9" s="1">
         <v>401</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>600</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>12.67</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <f>IF(L22&gt;SUM(M4:M8),IF((L22-SUM(M4:M8))/J9&gt;(I9-I8),I9-I8,ROUND((L22-SUM(M4:M8))/J9,2)),0)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>601</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <f>IF(E16&gt;B9,E16,0)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>14.61</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <f>IF((D9&gt;=(B9-B8)),E16-B9,0)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2">
+      <c r="G10" s="15"/>
+      <c r="H10" s="1">
         <v>601</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <f>IF(L22&gt;SUM(M4:M9),ROUND(((L22-SUM(M4:M9))/J10),2)+I9,601)</f>
         <v>601</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>14.61</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <f>IF(L22&gt;SUM(M4:M9),IF((L22-SUM(M4:M9))/J10&gt;(I10-I9),I10-I9,ROUND((L22-SUM(M4:M9))/J10,2)),0)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="3">
         <f>CEILING(SUM(F4:F10),1)</f>
         <v>5390</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="15"/>
+      <c r="H11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="6">
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="3">
         <f>CEILING(SUM(M4:M10),1)</f>
-        <v>878</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="8">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="5">
         <v>10</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="4">
         <f>E12</f>
         <v>10</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="14">
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="9">
         <v>40</v>
       </c>
-      <c r="M12" s="6">
-        <f>L12</f>
+      <c r="M12" s="16">
+        <f>IF(L21&gt;L12,L12,0)</f>
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="3">
         <v>42</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="4">
         <f>CEILING(E13*D13,1)</f>
         <v>42</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="5" t="s">
+      <c r="G13" s="15"/>
+      <c r="H13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6">
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="3">
         <v>42</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="9">
         <v>1</v>
       </c>
-      <c r="M13" s="6">
-        <f>CEILING(L13*K13,1)</f>
+      <c r="M13" s="16">
+        <f>IF(L21&gt;L13*K13,CEILING(L13*K13,1),0)</f>
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="12">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="7">
         <v>0.05</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="4">
         <f>CEILING(SUM(F11:F13)*E14,1)</f>
         <v>273</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="14">
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="9">
         <v>0.05</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="16">
         <f>ROUND((L21+M15)*L14,2)</f>
-        <v>49.53</v>
+        <v>29.72</v>
       </c>
     </row>
     <row r="15" spans="1:13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="12">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="7">
         <v>0.05</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="4">
         <f>CEILING(SUM(F11:F13)*E15,1)</f>
         <v>273</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="14">
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="9">
         <v>0.01</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="16">
         <f>-(L21 - L21*L14)*L15</f>
-        <v>-9.5</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="6">
         <v>600</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="5" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="15" t="s">
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="12">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="7">
         <f>CEILING(SUM(F11:F14),1)</f>
         <v>5715</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="5" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="12">
-        <v>1000</v>
-      </c>
-      <c r="M18" s="7"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="7">
+        <v>600</v>
+      </c>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="13">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="8">
         <f>CEILING(SUM(F11:F15),1)</f>
         <v>5988</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="5" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="7"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="1"/>
-      <c r="H20" s="5" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="7"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="1"/>
-      <c r="H21" s="5" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="6" t="s">
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="12">
         <f>SUM(L18:L20)</f>
-        <v>1000</v>
-      </c>
-      <c r="M21" s="11"/>
+        <v>600</v>
+      </c>
+      <c r="M21" s="13"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="1"/>
-      <c r="H22" s="5" t="s">
+      <c r="G22" s="15"/>
+      <c r="H22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="6" t="s">
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="12">
         <f>ROUND(L21-SUM(M12:M15),2)</f>
-        <v>877.97</v>
-      </c>
-      <c r="M22" s="11"/>
+        <v>493.98</v>
+      </c>
+      <c r="M22" s="13"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G23" s="1"/>
-      <c r="H23" s="5" t="s">
+      <c r="G23" s="15"/>
+      <c r="H23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="6" t="s">
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="12">
         <f>ROUND(SUM(K4:K10),2)</f>
-        <v>146.38</v>
-      </c>
-      <c r="M23" s="11"/>
+        <v>93.05</v>
+      </c>
+      <c r="M23" s="13"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G24" s="1"/>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G25" s="1"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G26" s="1"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G27" s="1"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G28" s="1"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G29" s="1"/>
+      <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G30" s="1"/>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G31" s="1"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G32" s="1"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G33" s="1"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G34" s="1"/>
+      <c r="G34" s="15"/>
     </row>
     <row r="35" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G35" s="1"/>
+      <c r="G35" s="15"/>
     </row>
     <row r="36" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G36" s="1"/>
+      <c r="G36" s="15"/>
     </row>
     <row r="37" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G37" s="1"/>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G38" s="1"/>
+      <c r="G38" s="15"/>
     </row>
     <row r="39" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G39" s="1"/>
+      <c r="G39" s="15"/>
     </row>
     <row r="40" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G40" s="1"/>
+      <c r="G40" s="15"/>
     </row>
     <row r="41" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G41" s="1"/>
+      <c r="G41" s="15"/>
     </row>
     <row r="42" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G42" s="1"/>
+      <c r="G42" s="15"/>
     </row>
     <row r="43" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G43" s="1"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G44" s="1"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="45" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G45" s="1"/>
+      <c r="G45" s="15"/>
     </row>
     <row r="46" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G46" s="1"/>
+      <c r="G46" s="15"/>
     </row>
     <row r="47" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G47" s="1"/>
+      <c r="G47" s="15"/>
     </row>
     <row r="48" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G48" s="1"/>
+      <c r="G48" s="15"/>
     </row>
     <row r="49" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G49" s="1"/>
+      <c r="G49" s="15"/>
     </row>
     <row r="50" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G50" s="1"/>
+      <c r="G50" s="15"/>
     </row>
     <row r="51" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G51" s="1"/>
+      <c r="G51" s="15"/>
     </row>
     <row r="52" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G52" s="1"/>
+      <c r="G52" s="15"/>
     </row>
     <row r="53" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G53" s="1"/>
+      <c r="G53" s="15"/>
     </row>
     <row r="54" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G54" s="1"/>
+      <c r="G54" s="15"/>
     </row>
     <row r="55" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G55" s="1"/>
+      <c r="G55" s="15"/>
     </row>
     <row r="56" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G56" s="1"/>
+      <c r="G56" s="15"/>
     </row>
     <row r="57" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G57" s="1"/>
+      <c r="G57" s="15"/>
     </row>
     <row r="58" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G58" s="1"/>
+      <c r="G58" s="15"/>
     </row>
     <row r="59" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G59" s="1"/>
+      <c r="G59" s="15"/>
     </row>
     <row r="60" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G60" s="1"/>
+      <c r="G60" s="15"/>
     </row>
     <row r="61" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G61" s="1"/>
+      <c r="G61" s="15"/>
     </row>
     <row r="62" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G62" s="1"/>
+      <c r="G62" s="15"/>
     </row>
     <row r="63" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G63" s="1"/>
+      <c r="G63" s="15"/>
     </row>
     <row r="64" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G64" s="1"/>
+      <c r="G64" s="15"/>
     </row>
     <row r="65" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G65" s="1"/>
+      <c r="G65" s="15"/>
     </row>
     <row r="66" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G66" s="1"/>
+      <c r="G66" s="15"/>
     </row>
     <row r="67" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G67" s="1"/>
+      <c r="G67" s="15"/>
     </row>
     <row r="68" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G68" s="1"/>
+      <c r="G68" s="15"/>
     </row>
     <row r="69" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G69" s="1"/>
+      <c r="G69" s="15"/>
     </row>
     <row r="70" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G70" s="1"/>
+      <c r="G70" s="15"/>
     </row>
     <row r="71" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G71" s="1"/>
+      <c r="G71" s="15"/>
     </row>
     <row r="72" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G72" s="1"/>
+      <c r="G72" s="15"/>
     </row>
     <row r="73" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G73" s="1"/>
+      <c r="G73" s="15"/>
     </row>
     <row r="74" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G74" s="1"/>
+      <c r="G74" s="15"/>
     </row>
     <row r="75" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G75" s="1"/>
+      <c r="G75" s="15"/>
     </row>
     <row r="76" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G76" s="1"/>
+      <c r="G76" s="15"/>
     </row>
     <row r="77" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G77" s="1"/>
+      <c r="G77" s="15"/>
     </row>
     <row r="78" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G78" s="1"/>
+      <c r="G78" s="15"/>
     </row>
     <row r="79" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G79" s="1"/>
+      <c r="G79" s="15"/>
     </row>
     <row r="80" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G80" s="1"/>
+      <c r="G80" s="15"/>
     </row>
     <row r="81" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G81" s="1"/>
+      <c r="G81" s="15"/>
     </row>
     <row r="82" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G82" s="1"/>
+      <c r="G82" s="15"/>
     </row>
     <row r="83" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G83" s="1"/>
+      <c r="G83" s="15"/>
     </row>
     <row r="84" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G84" s="1"/>
+      <c r="G84" s="15"/>
     </row>
     <row r="85" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G85" s="1"/>
+      <c r="G85" s="15"/>
     </row>
     <row r="86" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G86" s="1"/>
+      <c r="G86" s="15"/>
     </row>
     <row r="87" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G87" s="1"/>
+      <c r="G87" s="15"/>
     </row>
     <row r="88" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G88" s="1"/>
+      <c r="G88" s="15"/>
     </row>
     <row r="89" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G89" s="1"/>
+      <c r="G89" s="15"/>
     </row>
     <row r="90" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G90" s="1"/>
+      <c r="G90" s="15"/>
     </row>
     <row r="91" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G91" s="1"/>
+      <c r="G91" s="15"/>
     </row>
     <row r="92" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G92" s="1"/>
+      <c r="G92" s="15"/>
     </row>
     <row r="93" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G93" s="1"/>
+      <c r="G93" s="15"/>
     </row>
     <row r="94" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G94" s="1"/>
+      <c r="G94" s="15"/>
     </row>
     <row r="95" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G95" s="1"/>
+      <c r="G95" s="15"/>
     </row>
     <row r="96" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G96" s="1"/>
+      <c r="G96" s="15"/>
     </row>
     <row r="97" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G97" s="1"/>
+      <c r="G97" s="15"/>
     </row>
     <row r="98" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G98" s="1"/>
+      <c r="G98" s="15"/>
     </row>
     <row r="99" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G99" s="1"/>
+      <c r="G99" s="15"/>
     </row>
     <row r="100" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G100" s="1"/>
+      <c r="G100" s="15"/>
     </row>
     <row r="101" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G101" s="1"/>
+      <c r="G101" s="15"/>
     </row>
     <row r="102" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G102" s="1"/>
+      <c r="G102" s="15"/>
     </row>
     <row r="103" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G103" s="1"/>
+      <c r="G103" s="15"/>
     </row>
     <row r="104" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G104" s="1"/>
+      <c r="G104" s="15"/>
     </row>
     <row r="105" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G105" s="1"/>
+      <c r="G105" s="15"/>
     </row>
     <row r="106" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G106" s="1"/>
+      <c r="G106" s="15"/>
     </row>
     <row r="107" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G107" s="1"/>
+      <c r="G107" s="15"/>
     </row>
     <row r="108" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G108" s="1"/>
+      <c r="G108" s="15"/>
     </row>
     <row r="109" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G109" s="1"/>
+      <c r="G109" s="15"/>
     </row>
     <row r="110" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G110" s="1"/>
+      <c r="G110" s="15"/>
     </row>
     <row r="111" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G111" s="1"/>
+      <c r="G111" s="15"/>
     </row>
     <row r="112" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G112" s="1"/>
+      <c r="G112" s="15"/>
     </row>
     <row r="113" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G113" s="1"/>
+      <c r="G113" s="15"/>
     </row>
     <row r="114" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G114" s="1"/>
+      <c r="G114" s="15"/>
     </row>
     <row r="115" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G115" s="1"/>
+      <c r="G115" s="15"/>
     </row>
     <row r="116" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G116" s="1"/>
+      <c r="G116" s="15"/>
     </row>
     <row r="117" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G117" s="1"/>
+      <c r="G117" s="15"/>
     </row>
     <row r="118" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G118" s="1"/>
+      <c r="G118" s="15"/>
     </row>
     <row r="119" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G119" s="1"/>
+      <c r="G119" s="15"/>
     </row>
     <row r="120" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G120" s="1"/>
+      <c r="G120" s="15"/>
     </row>
     <row r="121" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G121" s="1"/>
+      <c r="G121" s="15"/>
     </row>
     <row r="122" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G122" s="1"/>
+      <c r="G122" s="15"/>
     </row>
     <row r="123" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G123" s="1"/>
+      <c r="G123" s="15"/>
     </row>
     <row r="124" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G124" s="1"/>
+      <c r="G124" s="15"/>
     </row>
     <row r="125" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G125" s="1"/>
+      <c r="G125" s="15"/>
     </row>
     <row r="126" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G126" s="1"/>
+      <c r="G126" s="15"/>
     </row>
     <row r="127" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G127" s="1"/>
+      <c r="G127" s="15"/>
     </row>
     <row r="128" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G128" s="1"/>
+      <c r="G128" s="15"/>
     </row>
     <row r="129" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G129" s="1"/>
+      <c r="G129" s="15"/>
     </row>
     <row r="130" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G130" s="1"/>
+      <c r="G130" s="15"/>
     </row>
     <row r="131" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G131" s="1"/>
+      <c r="G131" s="15"/>
     </row>
     <row r="132" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G132" s="1"/>
+      <c r="G132" s="15"/>
     </row>
     <row r="133" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G133" s="1"/>
+      <c r="G133" s="15"/>
     </row>
     <row r="134" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G134" s="1"/>
+      <c r="G134" s="15"/>
     </row>
     <row r="135" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G135" s="1"/>
+      <c r="G135" s="15"/>
     </row>
     <row r="136" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G136" s="1"/>
+      <c r="G136" s="15"/>
     </row>
     <row r="137" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G137" s="1"/>
+      <c r="G137" s="15"/>
     </row>
     <row r="138" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G138" s="1"/>
+      <c r="G138" s="15"/>
     </row>
     <row r="139" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G139" s="1"/>
+      <c r="G139" s="15"/>
     </row>
     <row r="140" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G140" s="1"/>
+      <c r="G140" s="15"/>
     </row>
     <row r="141" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G141" s="1"/>
+      <c r="G141" s="15"/>
     </row>
     <row r="142" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G142" s="1"/>
+      <c r="G142" s="15"/>
     </row>
     <row r="143" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G143" s="1"/>
+      <c r="G143" s="15"/>
     </row>
     <row r="144" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G144" s="1"/>
+      <c r="G144" s="15"/>
     </row>
     <row r="145" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G145" s="1"/>
+      <c r="G145" s="15"/>
     </row>
     <row r="146" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G146" s="1"/>
+      <c r="G146" s="15"/>
     </row>
     <row r="147" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G147" s="1"/>
+      <c r="G147" s="15"/>
     </row>
     <row r="148" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G148" s="1"/>
+      <c r="G148" s="15"/>
     </row>
     <row r="149" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G149" s="1"/>
+      <c r="G149" s="15"/>
     </row>
     <row r="150" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G150" s="1"/>
+      <c r="G150" s="15"/>
     </row>
     <row r="151" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G151" s="1"/>
+      <c r="G151" s="15"/>
     </row>
     <row r="152" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G152" s="1"/>
+      <c r="G152" s="15"/>
     </row>
     <row r="153" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G153" s="1"/>
+      <c r="G153" s="15"/>
     </row>
     <row r="154" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G154" s="1"/>
+      <c r="G154" s="15"/>
     </row>
     <row r="155" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G155" s="1"/>
+      <c r="G155" s="15"/>
     </row>
     <row r="156" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G156" s="1"/>
+      <c r="G156" s="15"/>
     </row>
     <row r="157" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G157" s="1"/>
+      <c r="G157" s="15"/>
     </row>
     <row r="158" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G158" s="1"/>
+      <c r="G158" s="15"/>
     </row>
     <row r="159" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G159" s="1"/>
+      <c r="G159" s="15"/>
     </row>
     <row r="160" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G160" s="1"/>
+      <c r="G160" s="15"/>
     </row>
     <row r="161" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G161" s="1"/>
+      <c r="G161" s="15"/>
     </row>
     <row r="162" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G162" s="1"/>
+      <c r="G162" s="15"/>
     </row>
     <row r="163" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G163" s="1"/>
+      <c r="G163" s="15"/>
     </row>
     <row r="164" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G164" s="1"/>
+      <c r="G164" s="15"/>
     </row>
     <row r="165" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G165" s="1"/>
+      <c r="G165" s="15"/>
     </row>
     <row r="166" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G166" s="1"/>
+      <c r="G166" s="15"/>
     </row>
     <row r="167" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G167" s="1"/>
+      <c r="G167" s="15"/>
     </row>
     <row r="168" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G168" s="1"/>
+      <c r="G168" s="15"/>
     </row>
     <row r="169" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G169" s="1"/>
+      <c r="G169" s="15"/>
     </row>
     <row r="170" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G170" s="1"/>
+      <c r="G170" s="15"/>
     </row>
     <row r="171" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G171" s="1"/>
+      <c r="G171" s="15"/>
     </row>
     <row r="172" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G172" s="1"/>
+      <c r="G172" s="15"/>
     </row>
     <row r="173" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G173" s="1"/>
+      <c r="G173" s="15"/>
     </row>
     <row r="174" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G174" s="1"/>
+      <c r="G174" s="15"/>
     </row>
     <row r="175" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G175" s="1"/>
+      <c r="G175" s="15"/>
     </row>
     <row r="176" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G176" s="1"/>
+      <c r="G176" s="15"/>
     </row>
     <row r="177" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G177" s="1"/>
+      <c r="G177" s="15"/>
     </row>
     <row r="178" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G178" s="1"/>
+      <c r="G178" s="15"/>
     </row>
     <row r="179" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G179" s="1"/>
+      <c r="G179" s="15"/>
     </row>
     <row r="180" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G180" s="1"/>
+      <c r="G180" s="15"/>
     </row>
     <row r="181" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G181" s="1"/>
+      <c r="G181" s="15"/>
     </row>
     <row r="182" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G182" s="1"/>
+      <c r="G182" s="15"/>
     </row>
     <row r="183" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G183" s="1"/>
+      <c r="G183" s="15"/>
     </row>
     <row r="184" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G184" s="1"/>
+      <c r="G184" s="15"/>
     </row>
     <row r="185" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G185" s="1"/>
+      <c r="G185" s="15"/>
     </row>
     <row r="186" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G186" s="1"/>
+      <c r="G186" s="15"/>
     </row>
     <row r="187" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G187" s="1"/>
+      <c r="G187" s="15"/>
     </row>
     <row r="188" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G188" s="1"/>
+      <c r="G188" s="15"/>
     </row>
     <row r="189" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G189" s="1"/>
+      <c r="G189" s="15"/>
     </row>
     <row r="190" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G190" s="1"/>
+      <c r="G190" s="15"/>
     </row>
     <row r="191" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G191" s="1"/>
+      <c r="G191" s="15"/>
     </row>
     <row r="192" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G192" s="1"/>
+      <c r="G192" s="15"/>
     </row>
     <row r="193" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G193" s="1"/>
+      <c r="G193" s="15"/>
     </row>
     <row r="194" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G194" s="1"/>
+      <c r="G194" s="15"/>
     </row>
     <row r="195" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G195" s="1"/>
+      <c r="G195" s="15"/>
     </row>
     <row r="196" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G196" s="1"/>
+      <c r="G196" s="15"/>
     </row>
     <row r="197" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G197" s="1"/>
+      <c r="G197" s="15"/>
     </row>
     <row r="198" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G198" s="1"/>
+      <c r="G198" s="15"/>
     </row>
     <row r="199" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G199" s="1"/>
+      <c r="G199" s="15"/>
     </row>
     <row r="200" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G200" s="1"/>
+      <c r="G200" s="15"/>
     </row>
     <row r="201" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G201" s="1"/>
+      <c r="G201" s="15"/>
     </row>
     <row r="202" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G202" s="1"/>
+      <c r="G202" s="15"/>
     </row>
     <row r="203" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G203" s="1"/>
+      <c r="G203" s="15"/>
     </row>
     <row r="204" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G204" s="1"/>
+      <c r="G204" s="15"/>
     </row>
     <row r="205" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G205" s="1"/>
+      <c r="G205" s="15"/>
     </row>
     <row r="206" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G206" s="1"/>
+      <c r="G206" s="15"/>
     </row>
     <row r="207" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G207" s="1"/>
+      <c r="G207" s="15"/>
     </row>
     <row r="208" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G208" s="1"/>
+      <c r="G208" s="15"/>
     </row>
     <row r="209" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G209" s="1"/>
+      <c r="G209" s="15"/>
     </row>
     <row r="210" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G210" s="1"/>
+      <c r="G210" s="15"/>
     </row>
     <row r="211" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G211" s="1"/>
+      <c r="G211" s="15"/>
     </row>
     <row r="212" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G212" s="1"/>
+      <c r="G212" s="15"/>
     </row>
     <row r="213" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G213" s="1"/>
+      <c r="G213" s="15"/>
     </row>
     <row r="214" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G214" s="1"/>
+      <c r="G214" s="15"/>
     </row>
     <row r="215" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G215" s="1"/>
+      <c r="G215" s="15"/>
     </row>
     <row r="216" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G216" s="1"/>
+      <c r="G216" s="15"/>
     </row>
     <row r="217" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G217" s="1"/>
+      <c r="G217" s="15"/>
     </row>
     <row r="218" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G218" s="1"/>
+      <c r="G218" s="15"/>
     </row>
     <row r="219" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G219" s="1"/>
+      <c r="G219" s="15"/>
     </row>
     <row r="220" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G220" s="1"/>
+      <c r="G220" s="15"/>
     </row>
     <row r="221" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G221" s="1"/>
+      <c r="G221" s="15"/>
     </row>
     <row r="222" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G222" s="1"/>
+      <c r="G222" s="15"/>
     </row>
     <row r="223" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G223" s="1"/>
+      <c r="G223" s="15"/>
     </row>
     <row r="224" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G224" s="1"/>
+      <c r="G224" s="15"/>
     </row>
     <row r="225" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G225" s="1"/>
+      <c r="G225" s="15"/>
     </row>
     <row r="226" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G226" s="1"/>
+      <c r="G226" s="15"/>
     </row>
     <row r="227" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G227" s="1"/>
+      <c r="G227" s="15"/>
     </row>
     <row r="228" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G228" s="1"/>
+      <c r="G228" s="15"/>
     </row>
     <row r="229" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G229" s="1"/>
+      <c r="G229" s="15"/>
     </row>
     <row r="230" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G230" s="1"/>
+      <c r="G230" s="15"/>
     </row>
     <row r="231" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G231" s="1"/>
+      <c r="G231" s="15"/>
     </row>
     <row r="232" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G232" s="1"/>
+      <c r="G232" s="15"/>
     </row>
     <row r="233" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G233" s="1"/>
+      <c r="G233" s="15"/>
     </row>
     <row r="234" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G234" s="1"/>
+      <c r="G234" s="15"/>
     </row>
     <row r="235" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G235" s="1"/>
+      <c r="G235" s="15"/>
     </row>
     <row r="236" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G236" s="1"/>
+      <c r="G236" s="15"/>
     </row>
     <row r="237" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G237" s="1"/>
+      <c r="G237" s="15"/>
     </row>
     <row r="238" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G238" s="1"/>
+      <c r="G238" s="15"/>
     </row>
     <row r="239" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G239" s="1"/>
+      <c r="G239" s="15"/>
     </row>
     <row r="240" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G240" s="1"/>
+      <c r="G240" s="15"/>
     </row>
     <row r="241" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G241" s="1"/>
+      <c r="G241" s="15"/>
     </row>
     <row r="242" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G242" s="1"/>
+      <c r="G242" s="15"/>
     </row>
     <row r="243" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G243" s="1"/>
+      <c r="G243" s="15"/>
     </row>
     <row r="244" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G244" s="1"/>
+      <c r="G244" s="15"/>
     </row>
     <row r="245" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G245" s="1"/>
+      <c r="G245" s="15"/>
     </row>
     <row r="246" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G246" s="1"/>
+      <c r="G246" s="15"/>
     </row>
     <row r="247" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G247" s="1"/>
+      <c r="G247" s="15"/>
     </row>
     <row r="248" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G248" s="1"/>
+      <c r="G248" s="15"/>
     </row>
     <row r="249" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G249" s="1"/>
+      <c r="G249" s="15"/>
     </row>
     <row r="250" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G250" s="1"/>
+      <c r="G250" s="15"/>
     </row>
     <row r="251" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G251" s="1"/>
+      <c r="G251" s="15"/>
     </row>
     <row r="252" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G252" s="1"/>
+      <c r="G252" s="15"/>
     </row>
     <row r="253" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G253" s="1"/>
+      <c r="G253" s="15"/>
     </row>
     <row r="254" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G254" s="1"/>
+      <c r="G254" s="15"/>
     </row>
     <row r="255" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G255" s="1"/>
+      <c r="G255" s="15"/>
     </row>
     <row r="256" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G256" s="1"/>
+      <c r="G256" s="15"/>
     </row>
     <row r="257" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G257" s="1"/>
+      <c r="G257" s="15"/>
     </row>
     <row r="258" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G258" s="1"/>
+      <c r="G258" s="15"/>
     </row>
     <row r="259" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G259" s="1"/>
+      <c r="G259" s="15"/>
     </row>
     <row r="260" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G260" s="1"/>
+      <c r="G260" s="15"/>
     </row>
     <row r="261" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G261" s="1"/>
+      <c r="G261" s="15"/>
     </row>
     <row r="262" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G262" s="1"/>
+      <c r="G262" s="15"/>
     </row>
     <row r="263" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G263" s="1"/>
+      <c r="G263" s="15"/>
     </row>
     <row r="264" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G264" s="1"/>
+      <c r="G264" s="15"/>
     </row>
     <row r="265" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G265" s="1"/>
+      <c r="G265" s="15"/>
     </row>
     <row r="266" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G266" s="1"/>
+      <c r="G266" s="15"/>
     </row>
     <row r="267" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G267" s="1"/>
+      <c r="G267" s="15"/>
     </row>
     <row r="268" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G268" s="1"/>
+      <c r="G268" s="15"/>
     </row>
     <row r="269" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G269" s="1"/>
+      <c r="G269" s="15"/>
     </row>
     <row r="270" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G270" s="1"/>
+      <c r="G270" s="15"/>
     </row>
     <row r="271" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G271" s="1"/>
+      <c r="G271" s="15"/>
     </row>
     <row r="272" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G272" s="1"/>
+      <c r="G272" s="15"/>
     </row>
     <row r="273" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G273" s="1"/>
+      <c r="G273" s="15"/>
     </row>
     <row r="274" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G274" s="1"/>
+      <c r="G274" s="15"/>
     </row>
     <row r="275" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G275" s="1"/>
+      <c r="G275" s="15"/>
     </row>
     <row r="276" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G276" s="1"/>
+      <c r="G276" s="15"/>
     </row>
     <row r="277" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G277" s="1"/>
+      <c r="G277" s="15"/>
     </row>
     <row r="278" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G278" s="1"/>
+      <c r="G278" s="15"/>
     </row>
     <row r="279" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G279" s="1"/>
+      <c r="G279" s="15"/>
     </row>
     <row r="280" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G280" s="1"/>
+      <c r="G280" s="15"/>
     </row>
     <row r="281" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G281" s="1"/>
+      <c r="G281" s="15"/>
     </row>
     <row r="282" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G282" s="1"/>
+      <c r="G282" s="15"/>
     </row>
     <row r="283" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G283" s="1"/>
+      <c r="G283" s="15"/>
     </row>
     <row r="284" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G284" s="1"/>
+      <c r="G284" s="15"/>
     </row>
     <row r="285" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G285" s="1"/>
+      <c r="G285" s="15"/>
     </row>
     <row r="286" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G286" s="1"/>
+      <c r="G286" s="15"/>
     </row>
     <row r="287" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G287" s="1"/>
+      <c r="G287" s="15"/>
     </row>
     <row r="288" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G288" s="1"/>
+      <c r="G288" s="15"/>
     </row>
     <row r="289" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G289" s="1"/>
+      <c r="G289" s="15"/>
     </row>
     <row r="290" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G290" s="1"/>
+      <c r="G290" s="15"/>
     </row>
     <row r="291" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G291" s="1"/>
+      <c r="G291" s="15"/>
     </row>
     <row r="292" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G292" s="1"/>
+      <c r="G292" s="15"/>
     </row>
     <row r="293" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G293" s="1"/>
+      <c r="G293" s="15"/>
     </row>
     <row r="294" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G294" s="1"/>
+      <c r="G294" s="15"/>
     </row>
     <row r="295" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G295" s="1"/>
+      <c r="G295" s="15"/>
     </row>
     <row r="296" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G296" s="1"/>
+      <c r="G296" s="15"/>
     </row>
     <row r="297" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G297" s="1"/>
+      <c r="G297" s="15"/>
     </row>
     <row r="298" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G298" s="1"/>
+      <c r="G298" s="15"/>
     </row>
     <row r="299" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G299" s="1"/>
+      <c r="G299" s="15"/>
     </row>
     <row r="300" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G300" s="1"/>
+      <c r="G300" s="15"/>
     </row>
     <row r="301" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G301" s="1"/>
+      <c r="G301" s="15"/>
     </row>
     <row r="302" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G302" s="1"/>
+      <c r="G302" s="15"/>
     </row>
     <row r="303" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G303" s="1"/>
+      <c r="G303" s="15"/>
     </row>
     <row r="304" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G304" s="1"/>
+      <c r="G304" s="15"/>
     </row>
     <row r="305" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G305" s="1"/>
+      <c r="G305" s="15"/>
     </row>
     <row r="306" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G306" s="1"/>
+      <c r="G306" s="15"/>
     </row>
     <row r="307" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G307" s="1"/>
+      <c r="G307" s="15"/>
     </row>
     <row r="308" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G308" s="1"/>
+      <c r="G308" s="15"/>
     </row>
     <row r="309" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G309" s="1"/>
+      <c r="G309" s="15"/>
     </row>
     <row r="310" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G310" s="1"/>
+      <c r="G310" s="15"/>
     </row>
     <row r="311" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G311" s="1"/>
+      <c r="G311" s="15"/>
     </row>
     <row r="312" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G312" s="1"/>
+      <c r="G312" s="15"/>
     </row>
     <row r="313" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G313" s="1"/>
+      <c r="G313" s="15"/>
     </row>
     <row r="314" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G314" s="1"/>
+      <c r="G314" s="15"/>
     </row>
     <row r="315" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G315" s="1"/>
+      <c r="G315" s="15"/>
     </row>
     <row r="316" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G316" s="1"/>
+      <c r="G316" s="15"/>
     </row>
     <row r="317" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G317" s="1"/>
+      <c r="G317" s="15"/>
     </row>
     <row r="318" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G318" s="1"/>
+      <c r="G318" s="15"/>
     </row>
     <row r="319" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G319" s="1"/>
+      <c r="G319" s="15"/>
     </row>
     <row r="320" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G320" s="1"/>
+      <c r="G320" s="15"/>
     </row>
     <row r="321" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G321" s="1"/>
+      <c r="G321" s="15"/>
     </row>
     <row r="322" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G322" s="1"/>
+      <c r="G322" s="15"/>
     </row>
     <row r="323" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G323" s="1"/>
+      <c r="G323" s="15"/>
     </row>
     <row r="324" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G324" s="1"/>
+      <c r="G324" s="15"/>
     </row>
     <row r="325" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G325" s="1"/>
+      <c r="G325" s="15"/>
     </row>
     <row r="326" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G326" s="1"/>
+      <c r="G326" s="15"/>
     </row>
     <row r="327" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G327" s="1"/>
+      <c r="G327" s="15"/>
     </row>
     <row r="328" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G328" s="1"/>
+      <c r="G328" s="15"/>
     </row>
     <row r="329" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G329" s="1"/>
+      <c r="G329" s="15"/>
     </row>
     <row r="330" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G330" s="1"/>
+      <c r="G330" s="15"/>
     </row>
     <row r="331" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G331" s="1"/>
+      <c r="G331" s="15"/>
     </row>
     <row r="332" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G332" s="1"/>
+      <c r="G332" s="15"/>
     </row>
     <row r="333" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G333" s="1"/>
+      <c r="G333" s="15"/>
     </row>
     <row r="334" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G334" s="1"/>
+      <c r="G334" s="15"/>
     </row>
     <row r="335" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G335" s="1"/>
+      <c r="G335" s="15"/>
     </row>
     <row r="336" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G336" s="1"/>
+      <c r="G336" s="15"/>
     </row>
     <row r="337" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G337" s="1"/>
+      <c r="G337" s="15"/>
     </row>
     <row r="338" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G338" s="1"/>
+      <c r="G338" s="15"/>
     </row>
     <row r="339" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G339" s="1"/>
+      <c r="G339" s="15"/>
     </row>
     <row r="340" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G340" s="1"/>
+      <c r="G340" s="15"/>
     </row>
     <row r="341" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G341" s="1"/>
+      <c r="G341" s="15"/>
     </row>
     <row r="342" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G342" s="1"/>
+      <c r="G342" s="15"/>
     </row>
     <row r="343" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G343" s="1"/>
+      <c r="G343" s="15"/>
     </row>
     <row r="344" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G344" s="1"/>
+      <c r="G344" s="15"/>
     </row>
     <row r="345" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G345" s="1"/>
+      <c r="G345" s="15"/>
     </row>
     <row r="346" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G346" s="1"/>
+      <c r="G346" s="15"/>
     </row>
     <row r="347" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G347" s="1"/>
+      <c r="G347" s="15"/>
     </row>
     <row r="348" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G348" s="1"/>
+      <c r="G348" s="15"/>
     </row>
     <row r="349" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G349" s="1"/>
+      <c r="G349" s="15"/>
     </row>
     <row r="350" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G350" s="1"/>
+      <c r="G350" s="15"/>
     </row>
     <row r="351" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G351" s="1"/>
+      <c r="G351" s="15"/>
     </row>
     <row r="352" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G352" s="1"/>
+      <c r="G352" s="15"/>
     </row>
     <row r="353" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G353" s="1"/>
+      <c r="G353" s="15"/>
     </row>
     <row r="354" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G354" s="1"/>
+      <c r="G354" s="15"/>
     </row>
     <row r="355" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G355" s="1"/>
+      <c r="G355" s="15"/>
     </row>
     <row r="356" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G356" s="1"/>
+      <c r="G356" s="15"/>
     </row>
     <row r="357" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G357" s="1"/>
+      <c r="G357" s="15"/>
     </row>
     <row r="358" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G358" s="1"/>
+      <c r="G358" s="15"/>
     </row>
     <row r="359" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G359" s="1"/>
+      <c r="G359" s="15"/>
     </row>
     <row r="360" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G360" s="1"/>
+      <c r="G360" s="15"/>
     </row>
     <row r="361" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G361" s="1"/>
+      <c r="G361" s="15"/>
     </row>
     <row r="362" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G362" s="1"/>
+      <c r="G362" s="15"/>
     </row>
     <row r="363" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G363" s="1"/>
+      <c r="G363" s="15"/>
     </row>
     <row r="364" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G364" s="1"/>
+      <c r="G364" s="15"/>
     </row>
     <row r="365" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G365" s="1"/>
+      <c r="G365" s="15"/>
     </row>
     <row r="366" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G366" s="1"/>
+      <c r="G366" s="15"/>
     </row>
     <row r="367" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G367" s="1"/>
+      <c r="G367" s="15"/>
     </row>
     <row r="368" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G368" s="1"/>
+      <c r="G368" s="15"/>
     </row>
     <row r="369" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G369" s="1"/>
+      <c r="G369" s="15"/>
     </row>
     <row r="370" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G370" s="1"/>
+      <c r="G370" s="15"/>
     </row>
     <row r="371" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G371" s="1"/>
+      <c r="G371" s="15"/>
     </row>
     <row r="372" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G372" s="1"/>
+      <c r="G372" s="15"/>
     </row>
     <row r="373" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G373" s="1"/>
+      <c r="G373" s="15"/>
     </row>
     <row r="374" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G374" s="1"/>
+      <c r="G374" s="15"/>
     </row>
     <row r="375" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G375" s="1"/>
+      <c r="G375" s="15"/>
     </row>
     <row r="376" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G376" s="1"/>
+      <c r="G376" s="15"/>
     </row>
     <row r="377" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G377" s="1"/>
+      <c r="G377" s="15"/>
     </row>
     <row r="378" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G378" s="1"/>
+      <c r="G378" s="15"/>
     </row>
     <row r="379" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G379" s="1"/>
+      <c r="G379" s="15"/>
     </row>
     <row r="380" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G380" s="1"/>
+      <c r="G380" s="15"/>
     </row>
     <row r="381" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G381" s="1"/>
+      <c r="G381" s="15"/>
     </row>
     <row r="382" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G382" s="1"/>
+      <c r="G382" s="15"/>
     </row>
     <row r="383" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G383" s="1"/>
+      <c r="G383" s="15"/>
     </row>
     <row r="384" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G384" s="1"/>
+      <c r="G384" s="15"/>
     </row>
     <row r="385" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G385" s="1"/>
+      <c r="G385" s="15"/>
     </row>
     <row r="386" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G386" s="1"/>
+      <c r="G386" s="15"/>
     </row>
     <row r="387" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G387" s="1"/>
+      <c r="G387" s="15"/>
     </row>
     <row r="388" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G388" s="1"/>
+      <c r="G388" s="15"/>
     </row>
     <row r="389" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G389" s="1"/>
+      <c r="G389" s="15"/>
     </row>
     <row r="390" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G390" s="1"/>
+      <c r="G390" s="15"/>
     </row>
     <row r="391" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G391" s="1"/>
+      <c r="G391" s="15"/>
     </row>
     <row r="392" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G392" s="1"/>
+      <c r="G392" s="15"/>
     </row>
     <row r="393" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G393" s="1"/>
+      <c r="G393" s="15"/>
     </row>
     <row r="394" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G394" s="1"/>
+      <c r="G394" s="15"/>
     </row>
     <row r="395" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G395" s="1"/>
+      <c r="G395" s="15"/>
     </row>
     <row r="396" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G396" s="1"/>
+      <c r="G396" s="15"/>
     </row>
     <row r="397" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G397" s="1"/>
+      <c r="G397" s="15"/>
     </row>
     <row r="398" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G398" s="1"/>
+      <c r="G398" s="15"/>
     </row>
     <row r="399" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G399" s="1"/>
+      <c r="G399" s="15"/>
     </row>
     <row r="400" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G400" s="1"/>
+      <c r="G400" s="15"/>
     </row>
     <row r="401" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G401" s="1"/>
+      <c r="G401" s="15"/>
     </row>
     <row r="402" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G402" s="1"/>
+      <c r="G402" s="15"/>
     </row>
     <row r="403" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G403" s="1"/>
+      <c r="G403" s="15"/>
     </row>
     <row r="404" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G404" s="1"/>
+      <c r="G404" s="15"/>
     </row>
     <row r="405" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G405" s="1"/>
+      <c r="G405" s="15"/>
     </row>
     <row r="406" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G406" s="1"/>
+      <c r="G406" s="15"/>
     </row>
     <row r="407" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G407" s="1"/>
+      <c r="G407" s="15"/>
     </row>
     <row r="408" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G408" s="1"/>
+      <c r="G408" s="15"/>
     </row>
     <row r="409" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G409" s="1"/>
+      <c r="G409" s="15"/>
     </row>
     <row r="410" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G410" s="1"/>
+      <c r="G410" s="15"/>
     </row>
     <row r="411" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G411" s="1"/>
+      <c r="G411" s="15"/>
     </row>
     <row r="412" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G412" s="1"/>
+      <c r="G412" s="15"/>
     </row>
     <row r="413" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G413" s="1"/>
+      <c r="G413" s="15"/>
     </row>
     <row r="414" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G414" s="1"/>
+      <c r="G414" s="15"/>
     </row>
     <row r="415" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G415" s="1"/>
+      <c r="G415" s="15"/>
     </row>
     <row r="416" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G416" s="1"/>
+      <c r="G416" s="15"/>
     </row>
     <row r="417" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G417" s="1"/>
+      <c r="G417" s="15"/>
     </row>
     <row r="418" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G418" s="1"/>
+      <c r="G418" s="15"/>
     </row>
     <row r="419" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G419" s="1"/>
+      <c r="G419" s="15"/>
     </row>
     <row r="420" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G420" s="1"/>
+      <c r="G420" s="15"/>
     </row>
     <row r="421" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G421" s="1"/>
+      <c r="G421" s="15"/>
     </row>
     <row r="422" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G422" s="1"/>
+      <c r="G422" s="15"/>
     </row>
     <row r="423" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G423" s="1"/>
+      <c r="G423" s="15"/>
     </row>
     <row r="424" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G424" s="1"/>
+      <c r="G424" s="15"/>
     </row>
     <row r="425" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G425" s="1"/>
+      <c r="G425" s="15"/>
     </row>
     <row r="426" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G426" s="1"/>
+      <c r="G426" s="15"/>
     </row>
     <row r="427" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G427" s="1"/>
+      <c r="G427" s="15"/>
     </row>
     <row r="428" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G428" s="1"/>
+      <c r="G428" s="15"/>
     </row>
     <row r="429" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G429" s="1"/>
+      <c r="G429" s="15"/>
     </row>
     <row r="430" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G430" s="1"/>
+      <c r="G430" s="15"/>
     </row>
     <row r="431" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G431" s="1"/>
+      <c r="G431" s="15"/>
     </row>
     <row r="432" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G432" s="1"/>
+      <c r="G432" s="15"/>
     </row>
     <row r="433" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G433" s="1"/>
+      <c r="G433" s="15"/>
     </row>
     <row r="434" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G434" s="1"/>
+      <c r="G434" s="15"/>
     </row>
     <row r="435" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G435" s="1"/>
+      <c r="G435" s="15"/>
     </row>
     <row r="436" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G436" s="1"/>
+      <c r="G436" s="15"/>
     </row>
     <row r="437" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G437" s="1"/>
+      <c r="G437" s="15"/>
     </row>
     <row r="438" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G438" s="1"/>
+      <c r="G438" s="15"/>
     </row>
     <row r="439" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G439" s="1"/>
+      <c r="G439" s="15"/>
     </row>
     <row r="440" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G440" s="1"/>
+      <c r="G440" s="15"/>
     </row>
     <row r="441" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G441" s="1"/>
+      <c r="G441" s="15"/>
     </row>
     <row r="442" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G442" s="1"/>
+      <c r="G442" s="15"/>
     </row>
     <row r="443" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G443" s="1"/>
+      <c r="G443" s="15"/>
     </row>
     <row r="444" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G444" s="1"/>
+      <c r="G444" s="15"/>
     </row>
     <row r="445" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G445" s="1"/>
+      <c r="G445" s="15"/>
     </row>
     <row r="446" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G446" s="1"/>
+      <c r="G446" s="15"/>
     </row>
     <row r="447" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G447" s="1"/>
+      <c r="G447" s="15"/>
     </row>
     <row r="448" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G448" s="1"/>
+      <c r="G448" s="15"/>
     </row>
     <row r="449" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G449" s="1"/>
+      <c r="G449" s="15"/>
     </row>
     <row r="450" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G450" s="1"/>
+      <c r="G450" s="15"/>
     </row>
     <row r="451" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G451" s="1"/>
+      <c r="G451" s="15"/>
     </row>
     <row r="452" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G452" s="1"/>
+      <c r="G452" s="15"/>
     </row>
     <row r="453" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G453" s="1"/>
+      <c r="G453" s="15"/>
     </row>
     <row r="454" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G454" s="1"/>
+      <c r="G454" s="15"/>
     </row>
     <row r="455" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G455" s="1"/>
+      <c r="G455" s="15"/>
     </row>
     <row r="456" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G456" s="1"/>
+      <c r="G456" s="15"/>
     </row>
     <row r="457" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G457" s="1"/>
+      <c r="G457" s="15"/>
     </row>
     <row r="458" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G458" s="1"/>
+      <c r="G458" s="15"/>
     </row>
     <row r="459" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G459" s="1"/>
+      <c r="G459" s="15"/>
     </row>
     <row r="460" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G460" s="1"/>
+      <c r="G460" s="15"/>
     </row>
     <row r="461" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G461" s="1"/>
+      <c r="G461" s="15"/>
     </row>
     <row r="462" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G462" s="1"/>
+      <c r="G462" s="15"/>
     </row>
     <row r="463" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G463" s="1"/>
+      <c r="G463" s="15"/>
     </row>
     <row r="464" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G464" s="1"/>
+      <c r="G464" s="15"/>
     </row>
     <row r="465" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G465" s="1"/>
+      <c r="G465" s="15"/>
     </row>
     <row r="466" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G466" s="1"/>
+      <c r="G466" s="15"/>
     </row>
     <row r="467" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G467" s="1"/>
+      <c r="G467" s="15"/>
     </row>
     <row r="468" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G468" s="1"/>
+      <c r="G468" s="15"/>
     </row>
     <row r="469" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G469" s="1"/>
+      <c r="G469" s="15"/>
     </row>
     <row r="470" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G470" s="1"/>
+      <c r="G470" s="15"/>
     </row>
     <row r="471" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G471" s="1"/>
+      <c r="G471" s="15"/>
     </row>
     <row r="472" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G472" s="1"/>
+      <c r="G472" s="15"/>
     </row>
     <row r="473" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G473" s="1"/>
+      <c r="G473" s="15"/>
     </row>
     <row r="474" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G474" s="1"/>
+      <c r="G474" s="15"/>
     </row>
     <row r="475" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G475" s="1"/>
+      <c r="G475" s="15"/>
     </row>
     <row r="476" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G476" s="1"/>
+      <c r="G476" s="15"/>
     </row>
     <row r="477" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G477" s="1"/>
+      <c r="G477" s="15"/>
     </row>
     <row r="478" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G478" s="1"/>
+      <c r="G478" s="15"/>
     </row>
     <row r="479" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G479" s="1"/>
+      <c r="G479" s="15"/>
     </row>
     <row r="480" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G480" s="1"/>
+      <c r="G480" s="15"/>
     </row>
     <row r="481" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G481" s="1"/>
+      <c r="G481" s="15"/>
     </row>
     <row r="482" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G482" s="1"/>
+      <c r="G482" s="15"/>
     </row>
     <row r="483" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G483" s="1"/>
+      <c r="G483" s="15"/>
     </row>
     <row r="484" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G484" s="1"/>
+      <c r="G484" s="15"/>
     </row>
     <row r="485" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G485" s="1"/>
+      <c r="G485" s="15"/>
     </row>
     <row r="486" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G486" s="1"/>
+      <c r="G486" s="15"/>
     </row>
     <row r="487" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G487" s="1"/>
+      <c r="G487" s="15"/>
     </row>
     <row r="488" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G488" s="1"/>
+      <c r="G488" s="15"/>
     </row>
     <row r="489" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G489" s="1"/>
+      <c r="G489" s="15"/>
     </row>
     <row r="490" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G490" s="1"/>
+      <c r="G490" s="15"/>
     </row>
     <row r="491" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G491" s="1"/>
+      <c r="G491" s="15"/>
     </row>
     <row r="492" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G492" s="1"/>
+      <c r="G492" s="15"/>
     </row>
     <row r="493" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G493" s="1"/>
+      <c r="G493" s="15"/>
     </row>
     <row r="494" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G494" s="1"/>
+      <c r="G494" s="15"/>
     </row>
     <row r="495" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G495" s="1"/>
+      <c r="G495" s="15"/>
     </row>
     <row r="496" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G496" s="1"/>
+      <c r="G496" s="15"/>
     </row>
     <row r="497" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G497" s="1"/>
+      <c r="G497" s="15"/>
     </row>
     <row r="498" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G498" s="1"/>
+      <c r="G498" s="15"/>
     </row>
     <row r="499" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G499" s="1"/>
+      <c r="G499" s="15"/>
     </row>
     <row r="500" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G500" s="1"/>
+      <c r="G500" s="15"/>
     </row>
     <row r="501" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G501" s="1"/>
+      <c r="G501" s="15"/>
     </row>
     <row r="502" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G502" s="1"/>
+      <c r="G502" s="15"/>
     </row>
     <row r="503" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G503" s="1"/>
+      <c r="G503" s="15"/>
     </row>
     <row r="504" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G504" s="1"/>
+      <c r="G504" s="15"/>
     </row>
     <row r="505" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G505" s="1"/>
+      <c r="G505" s="15"/>
     </row>
     <row r="506" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G506" s="1"/>
+      <c r="G506" s="15"/>
     </row>
     <row r="507" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G507" s="1"/>
+      <c r="G507" s="15"/>
     </row>
     <row r="508" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G508" s="1"/>
+      <c r="G508" s="15"/>
     </row>
     <row r="509" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G509" s="1"/>
+      <c r="G509" s="15"/>
     </row>
     <row r="510" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G510" s="1"/>
+      <c r="G510" s="15"/>
     </row>
     <row r="511" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G511" s="1"/>
+      <c r="G511" s="15"/>
     </row>
     <row r="512" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G512" s="1"/>
+      <c r="G512" s="15"/>
     </row>
     <row r="513" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G513" s="1"/>
+      <c r="G513" s="15"/>
     </row>
     <row r="514" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G514" s="1"/>
+      <c r="G514" s="15"/>
     </row>
     <row r="515" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G515" s="1"/>
+      <c r="G515" s="15"/>
     </row>
     <row r="516" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G516" s="1"/>
+      <c r="G516" s="15"/>
     </row>
     <row r="517" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G517" s="1"/>
+      <c r="G517" s="15"/>
     </row>
     <row r="518" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G518" s="1"/>
+      <c r="G518" s="15"/>
     </row>
     <row r="519" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G519" s="1"/>
+      <c r="G519" s="15"/>
     </row>
     <row r="520" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G520" s="1"/>
+      <c r="G520" s="15"/>
     </row>
     <row r="521" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G521" s="1"/>
+      <c r="G521" s="15"/>
     </row>
     <row r="522" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G522" s="1"/>
+      <c r="G522" s="15"/>
     </row>
     <row r="523" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G523" s="1"/>
+      <c r="G523" s="15"/>
     </row>
     <row r="524" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G524" s="1"/>
+      <c r="G524" s="15"/>
     </row>
     <row r="525" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G525" s="1"/>
+      <c r="G525" s="15"/>
     </row>
     <row r="526" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G526" s="1"/>
+      <c r="G526" s="15"/>
     </row>
     <row r="527" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G527" s="1"/>
+      <c r="G527" s="15"/>
     </row>
     <row r="528" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G528" s="1"/>
+      <c r="G528" s="15"/>
     </row>
     <row r="529" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G529" s="1"/>
+      <c r="G529" s="15"/>
     </row>
     <row r="530" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G530" s="1"/>
+      <c r="G530" s="15"/>
     </row>
     <row r="531" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G531" s="1"/>
+      <c r="G531" s="15"/>
     </row>
     <row r="532" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G532" s="1"/>
+      <c r="G532" s="15"/>
     </row>
     <row r="533" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G533" s="1"/>
+      <c r="G533" s="15"/>
     </row>
     <row r="534" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G534" s="1"/>
+      <c r="G534" s="15"/>
     </row>
     <row r="535" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G535" s="1"/>
+      <c r="G535" s="15"/>
     </row>
     <row r="536" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G536" s="1"/>
+      <c r="G536" s="15"/>
     </row>
     <row r="537" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G537" s="1"/>
+      <c r="G537" s="15"/>
     </row>
     <row r="538" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G538" s="1"/>
+      <c r="G538" s="15"/>
     </row>
     <row r="539" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G539" s="1"/>
+      <c r="G539" s="15"/>
     </row>
     <row r="540" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G540" s="1"/>
+      <c r="G540" s="15"/>
     </row>
     <row r="541" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G541" s="1"/>
+      <c r="G541" s="15"/>
     </row>
     <row r="542" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G542" s="1"/>
+      <c r="G542" s="15"/>
     </row>
     <row r="543" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G543" s="1"/>
+      <c r="G543" s="15"/>
     </row>
     <row r="544" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G544" s="1"/>
+      <c r="G544" s="15"/>
     </row>
     <row r="545" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G545" s="1"/>
+      <c r="G545" s="15"/>
     </row>
     <row r="546" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G546" s="1"/>
+      <c r="G546" s="15"/>
     </row>
     <row r="547" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G547" s="1"/>
+      <c r="G547" s="15"/>
     </row>
     <row r="548" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G548" s="1"/>
+      <c r="G548" s="15"/>
     </row>
     <row r="549" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G549" s="1"/>
+      <c r="G549" s="15"/>
     </row>
     <row r="550" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G550" s="1"/>
+      <c r="G550" s="15"/>
     </row>
     <row r="551" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G551" s="1"/>
+      <c r="G551" s="15"/>
     </row>
     <row r="552" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G552" s="1"/>
+      <c r="G552" s="15"/>
     </row>
     <row r="553" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G553" s="1"/>
+      <c r="G553" s="15"/>
     </row>
     <row r="554" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G554" s="1"/>
+      <c r="G554" s="15"/>
     </row>
     <row r="555" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G555" s="1"/>
+      <c r="G555" s="15"/>
     </row>
     <row r="556" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G556" s="1"/>
+      <c r="G556" s="15"/>
     </row>
     <row r="557" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G557" s="1"/>
+      <c r="G557" s="15"/>
     </row>
     <row r="558" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G558" s="1"/>
+      <c r="G558" s="15"/>
     </row>
     <row r="559" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G559" s="1"/>
+      <c r="G559" s="15"/>
     </row>
     <row r="560" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G560" s="1"/>
+      <c r="G560" s="15"/>
     </row>
     <row r="561" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G561" s="1"/>
+      <c r="G561" s="15"/>
     </row>
     <row r="562" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G562" s="1"/>
+      <c r="G562" s="15"/>
     </row>
     <row r="563" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G563" s="1"/>
+      <c r="G563" s="15"/>
     </row>
     <row r="564" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G564" s="1"/>
+      <c r="G564" s="15"/>
     </row>
     <row r="565" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G565" s="1"/>
+      <c r="G565" s="15"/>
     </row>
     <row r="566" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G566" s="1"/>
+      <c r="G566" s="15"/>
     </row>
     <row r="567" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G567" s="1"/>
+      <c r="G567" s="15"/>
     </row>
     <row r="568" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G568" s="1"/>
+      <c r="G568" s="15"/>
     </row>
     <row r="569" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G569" s="1"/>
+      <c r="G569" s="15"/>
     </row>
     <row r="570" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G570" s="1"/>
+      <c r="G570" s="15"/>
     </row>
     <row r="571" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G571" s="1"/>
+      <c r="G571" s="15"/>
     </row>
     <row r="572" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G572" s="1"/>
+      <c r="G572" s="15"/>
     </row>
     <row r="573" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G573" s="1"/>
+      <c r="G573" s="15"/>
     </row>
     <row r="574" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G574" s="1"/>
+      <c r="G574" s="15"/>
     </row>
     <row r="575" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G575" s="1"/>
+      <c r="G575" s="15"/>
     </row>
     <row r="576" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G576" s="1"/>
+      <c r="G576" s="15"/>
     </row>
     <row r="577" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G577" s="1"/>
+      <c r="G577" s="15"/>
     </row>
     <row r="578" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G578" s="1"/>
+      <c r="G578" s="15"/>
     </row>
     <row r="579" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G579" s="1"/>
+      <c r="G579" s="15"/>
     </row>
     <row r="580" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G580" s="1"/>
+      <c r="G580" s="15"/>
     </row>
     <row r="581" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G581" s="1"/>
+      <c r="G581" s="15"/>
     </row>
     <row r="582" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G582" s="1"/>
+      <c r="G582" s="15"/>
     </row>
     <row r="583" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G583" s="1"/>
+      <c r="G583" s="15"/>
     </row>
     <row r="584" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G584" s="1"/>
+      <c r="G584" s="15"/>
     </row>
     <row r="585" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G585" s="1"/>
+      <c r="G585" s="15"/>
     </row>
     <row r="586" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G586" s="1"/>
+      <c r="G586" s="15"/>
     </row>
     <row r="587" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G587" s="1"/>
+      <c r="G587" s="15"/>
     </row>
     <row r="588" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G588" s="1"/>
+      <c r="G588" s="15"/>
     </row>
     <row r="589" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G589" s="1"/>
+      <c r="G589" s="15"/>
     </row>
     <row r="590" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G590" s="1"/>
+      <c r="G590" s="15"/>
     </row>
     <row r="591" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G591" s="1"/>
+      <c r="G591" s="15"/>
     </row>
     <row r="592" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G592" s="1"/>
+      <c r="G592" s="15"/>
     </row>
     <row r="593" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G593" s="1"/>
+      <c r="G593" s="15"/>
     </row>
     <row r="594" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G594" s="1"/>
+      <c r="G594" s="15"/>
     </row>
     <row r="595" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G595" s="1"/>
+      <c r="G595" s="15"/>
     </row>
     <row r="596" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G596" s="1"/>
+      <c r="G596" s="15"/>
     </row>
     <row r="597" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G597" s="1"/>
+      <c r="G597" s="15"/>
     </row>
     <row r="598" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G598" s="1"/>
+      <c r="G598" s="15"/>
     </row>
     <row r="599" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G599" s="1"/>
+      <c r="G599" s="15"/>
     </row>
     <row r="600" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G600" s="1"/>
+      <c r="G600" s="15"/>
     </row>
     <row r="601" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G601" s="1"/>
+      <c r="G601" s="15"/>
     </row>
     <row r="602" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G602" s="1"/>
+      <c r="G602" s="15"/>
     </row>
     <row r="603" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G603" s="1"/>
+      <c r="G603" s="15"/>
     </row>
     <row r="604" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G604" s="1"/>
+      <c r="G604" s="15"/>
     </row>
     <row r="605" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G605" s="1"/>
+      <c r="G605" s="15"/>
     </row>
     <row r="606" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G606" s="1"/>
+      <c r="G606" s="15"/>
     </row>
     <row r="607" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G607" s="1"/>
+      <c r="G607" s="15"/>
     </row>
     <row r="608" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G608" s="1"/>
+      <c r="G608" s="15"/>
     </row>
     <row r="609" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G609" s="1"/>
+      <c r="G609" s="15"/>
     </row>
     <row r="610" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G610" s="1"/>
+      <c r="G610" s="15"/>
     </row>
     <row r="611" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G611" s="1"/>
+      <c r="G611" s="15"/>
     </row>
     <row r="612" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G612" s="1"/>
+      <c r="G612" s="15"/>
     </row>
     <row r="613" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G613" s="1"/>
+      <c r="G613" s="15"/>
     </row>
     <row r="614" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G614" s="1"/>
+      <c r="G614" s="15"/>
     </row>
     <row r="615" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G615" s="1"/>
+      <c r="G615" s="15"/>
     </row>
     <row r="616" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G616" s="1"/>
+      <c r="G616" s="15"/>
     </row>
     <row r="617" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G617" s="1"/>
+      <c r="G617" s="15"/>
     </row>
     <row r="618" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G618" s="1"/>
+      <c r="G618" s="15"/>
     </row>
     <row r="619" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G619" s="1"/>
+      <c r="G619" s="15"/>
     </row>
     <row r="620" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G620" s="1"/>
+      <c r="G620" s="15"/>
     </row>
     <row r="621" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G621" s="1"/>
+      <c r="G621" s="15"/>
     </row>
     <row r="622" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G622" s="1"/>
+      <c r="G622" s="15"/>
     </row>
     <row r="623" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G623" s="1"/>
+      <c r="G623" s="15"/>
     </row>
     <row r="624" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G624" s="1"/>
+      <c r="G624" s="15"/>
     </row>
     <row r="625" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G625" s="1"/>
+      <c r="G625" s="15"/>
     </row>
     <row r="626" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G626" s="1"/>
+      <c r="G626" s="15"/>
     </row>
     <row r="627" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G627" s="1"/>
+      <c r="G627" s="15"/>
     </row>
     <row r="628" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G628" s="1"/>
+      <c r="G628" s="15"/>
     </row>
     <row r="629" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G629" s="1"/>
+      <c r="G629" s="15"/>
     </row>
     <row r="630" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G630" s="1"/>
+      <c r="G630" s="15"/>
     </row>
     <row r="631" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G631" s="1"/>
+      <c r="G631" s="15"/>
     </row>
     <row r="632" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G632" s="1"/>
+      <c r="G632" s="15"/>
     </row>
     <row r="633" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G633" s="1"/>
+      <c r="G633" s="15"/>
     </row>
     <row r="634" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G634" s="1"/>
+      <c r="G634" s="15"/>
     </row>
     <row r="635" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G635" s="1"/>
+      <c r="G635" s="15"/>
     </row>
     <row r="636" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G636" s="1"/>
+      <c r="G636" s="15"/>
     </row>
     <row r="637" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G637" s="1"/>
+      <c r="G637" s="15"/>
     </row>
     <row r="638" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G638" s="1"/>
+      <c r="G638" s="15"/>
     </row>
     <row r="639" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G639" s="1"/>
+      <c r="G639" s="15"/>
     </row>
     <row r="640" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G640" s="1"/>
+      <c r="G640" s="15"/>
     </row>
     <row r="641" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G641" s="1"/>
+      <c r="G641" s="15"/>
     </row>
     <row r="642" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G642" s="1"/>
+      <c r="G642" s="15"/>
     </row>
     <row r="643" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G643" s="1"/>
+      <c r="G643" s="15"/>
     </row>
     <row r="644" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G644" s="1"/>
+      <c r="G644" s="15"/>
     </row>
     <row r="645" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G645" s="1"/>
+      <c r="G645" s="15"/>
     </row>
     <row r="646" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G646" s="1"/>
+      <c r="G646" s="15"/>
     </row>
     <row r="647" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G647" s="1"/>
+      <c r="G647" s="15"/>
     </row>
     <row r="648" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G648" s="1"/>
+      <c r="G648" s="15"/>
     </row>
     <row r="649" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G649" s="1"/>
+      <c r="G649" s="15"/>
     </row>
     <row r="650" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G650" s="1"/>
+      <c r="G650" s="15"/>
     </row>
     <row r="651" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G651" s="1"/>
+      <c r="G651" s="15"/>
     </row>
     <row r="652" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G652" s="1"/>
+      <c r="G652" s="15"/>
     </row>
     <row r="653" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G653" s="1"/>
+      <c r="G653" s="15"/>
     </row>
     <row r="654" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G654" s="1"/>
+      <c r="G654" s="15"/>
     </row>
     <row r="655" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G655" s="1"/>
+      <c r="G655" s="15"/>
     </row>
     <row r="656" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G656" s="1"/>
+      <c r="G656" s="15"/>
     </row>
     <row r="657" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G657" s="1"/>
+      <c r="G657" s="15"/>
     </row>
     <row r="658" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G658" s="1"/>
+      <c r="G658" s="15"/>
     </row>
     <row r="659" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G659" s="1"/>
+      <c r="G659" s="15"/>
     </row>
     <row r="660" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G660" s="1"/>
+      <c r="G660" s="15"/>
     </row>
     <row r="661" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G661" s="1"/>
+      <c r="G661" s="15"/>
     </row>
     <row r="662" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G662" s="1"/>
+      <c r="G662" s="15"/>
     </row>
     <row r="663" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G663" s="1"/>
+      <c r="G663" s="15"/>
     </row>
     <row r="664" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G664" s="1"/>
+      <c r="G664" s="15"/>
     </row>
     <row r="665" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G665" s="1"/>
+      <c r="G665" s="15"/>
     </row>
     <row r="666" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G666" s="1"/>
+      <c r="G666" s="15"/>
     </row>
     <row r="667" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G667" s="1"/>
+      <c r="G667" s="15"/>
     </row>
     <row r="668" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G668" s="1"/>
+      <c r="G668" s="15"/>
     </row>
     <row r="669" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G669" s="1"/>
+      <c r="G669" s="15"/>
     </row>
     <row r="670" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G670" s="1"/>
+      <c r="G670" s="15"/>
     </row>
     <row r="671" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G671" s="1"/>
+      <c r="G671" s="15"/>
     </row>
     <row r="672" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G672" s="1"/>
+      <c r="G672" s="15"/>
     </row>
     <row r="673" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G673" s="1"/>
+      <c r="G673" s="15"/>
     </row>
     <row r="674" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G674" s="1"/>
+      <c r="G674" s="15"/>
     </row>
     <row r="675" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G675" s="1"/>
+      <c r="G675" s="15"/>
     </row>
     <row r="676" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G676" s="1"/>
+      <c r="G676" s="15"/>
     </row>
     <row r="677" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G677" s="1"/>
+      <c r="G677" s="15"/>
     </row>
     <row r="678" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G678" s="1"/>
+      <c r="G678" s="15"/>
     </row>
     <row r="679" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G679" s="1"/>
+      <c r="G679" s="15"/>
     </row>
     <row r="680" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G680" s="1"/>
+      <c r="G680" s="15"/>
     </row>
     <row r="681" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G681" s="1"/>
+      <c r="G681" s="15"/>
     </row>
     <row r="682" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G682" s="1"/>
+      <c r="G682" s="15"/>
     </row>
     <row r="683" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G683" s="1"/>
+      <c r="G683" s="15"/>
     </row>
     <row r="684" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G684" s="1"/>
+      <c r="G684" s="15"/>
     </row>
     <row r="685" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G685" s="1"/>
+      <c r="G685" s="15"/>
     </row>
     <row r="686" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G686" s="1"/>
+      <c r="G686" s="15"/>
     </row>
     <row r="687" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G687" s="1"/>
+      <c r="G687" s="15"/>
     </row>
     <row r="688" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G688" s="1"/>
+      <c r="G688" s="15"/>
     </row>
     <row r="689" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G689" s="1"/>
+      <c r="G689" s="15"/>
     </row>
     <row r="690" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G690" s="1"/>
+      <c r="G690" s="15"/>
     </row>
     <row r="691" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G691" s="1"/>
+      <c r="G691" s="15"/>
     </row>
     <row r="692" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G692" s="1"/>
+      <c r="G692" s="15"/>
     </row>
     <row r="693" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G693" s="1"/>
+      <c r="G693" s="15"/>
     </row>
     <row r="694" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G694" s="1"/>
+      <c r="G694" s="15"/>
     </row>
     <row r="695" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G695" s="1"/>
+      <c r="G695" s="15"/>
     </row>
     <row r="696" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G696" s="1"/>
+      <c r="G696" s="15"/>
     </row>
     <row r="697" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G697" s="1"/>
+      <c r="G697" s="15"/>
     </row>
     <row r="698" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G698" s="1"/>
+      <c r="G698" s="15"/>
     </row>
     <row r="699" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G699" s="1"/>
+      <c r="G699" s="15"/>
     </row>
     <row r="700" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G700" s="1"/>
+      <c r="G700" s="15"/>
     </row>
     <row r="701" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G701" s="1"/>
+      <c r="G701" s="15"/>
     </row>
     <row r="702" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G702" s="1"/>
+      <c r="G702" s="15"/>
     </row>
     <row r="703" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G703" s="1"/>
+      <c r="G703" s="15"/>
     </row>
     <row r="704" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G704" s="1"/>
+      <c r="G704" s="15"/>
     </row>
     <row r="705" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G705" s="1"/>
+      <c r="G705" s="15"/>
     </row>
     <row r="706" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G706" s="1"/>
+      <c r="G706" s="15"/>
     </row>
     <row r="707" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G707" s="1"/>
+      <c r="G707" s="15"/>
     </row>
     <row r="708" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G708" s="1"/>
+      <c r="G708" s="15"/>
     </row>
     <row r="709" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G709" s="1"/>
+      <c r="G709" s="15"/>
     </row>
     <row r="710" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G710" s="1"/>
+      <c r="G710" s="15"/>
     </row>
     <row r="711" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G711" s="1"/>
+      <c r="G711" s="15"/>
     </row>
     <row r="712" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G712" s="1"/>
+      <c r="G712" s="15"/>
     </row>
     <row r="713" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G713" s="1"/>
+      <c r="G713" s="15"/>
     </row>
     <row r="714" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G714" s="1"/>
+      <c r="G714" s="15"/>
     </row>
     <row r="715" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G715" s="1"/>
+      <c r="G715" s="15"/>
     </row>
     <row r="716" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G716" s="1"/>
+      <c r="G716" s="15"/>
     </row>
     <row r="717" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G717" s="1"/>
+      <c r="G717" s="15"/>
     </row>
     <row r="718" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G718" s="1"/>
+      <c r="G718" s="15"/>
     </row>
     <row r="719" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G719" s="1"/>
+      <c r="G719" s="15"/>
     </row>
     <row r="720" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G720" s="1"/>
+      <c r="G720" s="15"/>
     </row>
     <row r="721" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G721" s="1"/>
+      <c r="G721" s="15"/>
     </row>
     <row r="722" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G722" s="1"/>
+      <c r="G722" s="15"/>
     </row>
     <row r="723" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G723" s="1"/>
+      <c r="G723" s="15"/>
     </row>
     <row r="724" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G724" s="1"/>
+      <c r="G724" s="15"/>
     </row>
     <row r="725" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G725" s="1"/>
+      <c r="G725" s="15"/>
     </row>
     <row r="726" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G726" s="1"/>
+      <c r="G726" s="15"/>
     </row>
     <row r="727" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G727" s="1"/>
+      <c r="G727" s="15"/>
     </row>
     <row r="728" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G728" s="1"/>
+      <c r="G728" s="15"/>
     </row>
     <row r="729" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G729" s="1"/>
+      <c r="G729" s="15"/>
     </row>
     <row r="730" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G730" s="1"/>
+      <c r="G730" s="15"/>
     </row>
     <row r="731" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G731" s="1"/>
+      <c r="G731" s="15"/>
     </row>
     <row r="732" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G732" s="1"/>
+      <c r="G732" s="15"/>
     </row>
     <row r="733" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G733" s="1"/>
+      <c r="G733" s="15"/>
     </row>
     <row r="734" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G734" s="1"/>
+      <c r="G734" s="15"/>
     </row>
     <row r="735" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G735" s="1"/>
+      <c r="G735" s="15"/>
     </row>
     <row r="736" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G736" s="1"/>
+      <c r="G736" s="15"/>
     </row>
     <row r="737" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G737" s="1"/>
+      <c r="G737" s="15"/>
     </row>
     <row r="738" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G738" s="1"/>
+      <c r="G738" s="15"/>
     </row>
     <row r="739" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G739" s="1"/>
+      <c r="G739" s="15"/>
     </row>
     <row r="740" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G740" s="1"/>
+      <c r="G740" s="15"/>
     </row>
     <row r="741" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G741" s="1"/>
+      <c r="G741" s="15"/>
     </row>
     <row r="742" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G742" s="1"/>
+      <c r="G742" s="15"/>
     </row>
     <row r="743" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G743" s="1"/>
+      <c r="G743" s="15"/>
     </row>
     <row r="744" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G744" s="1"/>
+      <c r="G744" s="15"/>
     </row>
     <row r="745" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G745" s="1"/>
+      <c r="G745" s="15"/>
     </row>
     <row r="746" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G746" s="1"/>
+      <c r="G746" s="15"/>
     </row>
     <row r="747" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G747" s="1"/>
+      <c r="G747" s="15"/>
     </row>
     <row r="748" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G748" s="1"/>
+      <c r="G748" s="15"/>
     </row>
     <row r="749" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G749" s="1"/>
+      <c r="G749" s="15"/>
     </row>
     <row r="750" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G750" s="1"/>
+      <c r="G750" s="15"/>
     </row>
     <row r="751" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G751" s="1"/>
+      <c r="G751" s="15"/>
     </row>
     <row r="752" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G752" s="1"/>
+      <c r="G752" s="15"/>
     </row>
     <row r="753" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G753" s="1"/>
+      <c r="G753" s="15"/>
     </row>
     <row r="754" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G754" s="1"/>
+      <c r="G754" s="15"/>
     </row>
     <row r="755" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G755" s="1"/>
+      <c r="G755" s="15"/>
     </row>
     <row r="756" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G756" s="1"/>
+      <c r="G756" s="15"/>
     </row>
     <row r="757" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G757" s="1"/>
+      <c r="G757" s="15"/>
     </row>
     <row r="758" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G758" s="1"/>
+      <c r="G758" s="15"/>
     </row>
     <row r="759" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G759" s="1"/>
+      <c r="G759" s="15"/>
     </row>
     <row r="760" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G760" s="1"/>
+      <c r="G760" s="15"/>
     </row>
     <row r="761" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G761" s="1"/>
+      <c r="G761" s="15"/>
     </row>
     <row r="762" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G762" s="1"/>
+      <c r="G762" s="15"/>
     </row>
     <row r="763" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G763" s="1"/>
+      <c r="G763" s="15"/>
     </row>
     <row r="764" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G764" s="1"/>
+      <c r="G764" s="15"/>
     </row>
     <row r="765" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G765" s="1"/>
+      <c r="G765" s="15"/>
     </row>
     <row r="766" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G766" s="1"/>
+      <c r="G766" s="15"/>
     </row>
     <row r="767" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G767" s="1"/>
+      <c r="G767" s="15"/>
     </row>
     <row r="768" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G768" s="1"/>
+      <c r="G768" s="15"/>
     </row>
     <row r="769" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G769" s="1"/>
+      <c r="G769" s="15"/>
     </row>
     <row r="770" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G770" s="1"/>
+      <c r="G770" s="15"/>
     </row>
     <row r="771" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G771" s="1"/>
+      <c r="G771" s="15"/>
     </row>
     <row r="772" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G772" s="1"/>
+      <c r="G772" s="15"/>
     </row>
     <row r="773" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G773" s="1"/>
+      <c r="G773" s="15"/>
     </row>
     <row r="774" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G774" s="1"/>
+      <c r="G774" s="15"/>
     </row>
     <row r="775" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G775" s="1"/>
+      <c r="G775" s="15"/>
     </row>
     <row r="776" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G776" s="1"/>
+      <c r="G776" s="15"/>
     </row>
     <row r="777" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G777" s="1"/>
+      <c r="G777" s="15"/>
     </row>
     <row r="778" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G778" s="1"/>
+      <c r="G778" s="15"/>
     </row>
     <row r="779" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G779" s="1"/>
+      <c r="G779" s="15"/>
     </row>
     <row r="780" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G780" s="1"/>
+      <c r="G780" s="15"/>
     </row>
     <row r="781" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G781" s="1"/>
+      <c r="G781" s="15"/>
     </row>
     <row r="782" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G782" s="1"/>
+      <c r="G782" s="15"/>
     </row>
     <row r="783" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G783" s="1"/>
+      <c r="G783" s="15"/>
     </row>
     <row r="784" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G784" s="1"/>
+      <c r="G784" s="15"/>
     </row>
     <row r="785" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G785" s="1"/>
+      <c r="G785" s="15"/>
     </row>
     <row r="786" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G786" s="1"/>
+      <c r="G786" s="15"/>
     </row>
     <row r="787" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G787" s="1"/>
+      <c r="G787" s="15"/>
     </row>
     <row r="788" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G788" s="1"/>
+      <c r="G788" s="15"/>
     </row>
     <row r="789" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G789" s="1"/>
+      <c r="G789" s="15"/>
     </row>
     <row r="790" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G790" s="1"/>
+      <c r="G790" s="15"/>
     </row>
     <row r="791" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G791" s="1"/>
+      <c r="G791" s="15"/>
     </row>
     <row r="792" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G792" s="1"/>
+      <c r="G792" s="15"/>
     </row>
     <row r="793" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G793" s="1"/>
+      <c r="G793" s="15"/>
     </row>
     <row r="794" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G794" s="1"/>
+      <c r="G794" s="15"/>
     </row>
     <row r="795" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G795" s="1"/>
+      <c r="G795" s="15"/>
     </row>
     <row r="796" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G796" s="1"/>
+      <c r="G796" s="15"/>
     </row>
     <row r="797" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G797" s="1"/>
+      <c r="G797" s="15"/>
     </row>
     <row r="798" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G798" s="1"/>
+      <c r="G798" s="15"/>
     </row>
     <row r="799" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G799" s="1"/>
+      <c r="G799" s="15"/>
     </row>
     <row r="800" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G800" s="1"/>
+      <c r="G800" s="15"/>
     </row>
     <row r="801" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G801" s="1"/>
+      <c r="G801" s="15"/>
     </row>
     <row r="802" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G802" s="1"/>
+      <c r="G802" s="15"/>
     </row>
     <row r="803" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G803" s="1"/>
+      <c r="G803" s="15"/>
     </row>
     <row r="804" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G804" s="1"/>
+      <c r="G804" s="15"/>
     </row>
     <row r="805" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G805" s="1"/>
+      <c r="G805" s="15"/>
     </row>
     <row r="806" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G806" s="1"/>
+      <c r="G806" s="15"/>
     </row>
     <row r="807" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G807" s="1"/>
+      <c r="G807" s="15"/>
     </row>
     <row r="808" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G808" s="1"/>
+      <c r="G808" s="15"/>
     </row>
     <row r="809" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G809" s="1"/>
+      <c r="G809" s="15"/>
     </row>
     <row r="810" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G810" s="1"/>
+      <c r="G810" s="15"/>
     </row>
     <row r="811" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G811" s="1"/>
+      <c r="G811" s="15"/>
     </row>
     <row r="812" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G812" s="1"/>
+      <c r="G812" s="15"/>
     </row>
     <row r="813" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G813" s="1"/>
+      <c r="G813" s="15"/>
     </row>
     <row r="814" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G814" s="1"/>
+      <c r="G814" s="15"/>
     </row>
     <row r="815" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G815" s="1"/>
+      <c r="G815" s="15"/>
     </row>
     <row r="816" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G816" s="1"/>
+      <c r="G816" s="15"/>
     </row>
     <row r="817" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G817" s="1"/>
+      <c r="G817" s="15"/>
     </row>
     <row r="818" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G818" s="1"/>
+      <c r="G818" s="15"/>
     </row>
     <row r="819" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G819" s="1"/>
+      <c r="G819" s="15"/>
     </row>
     <row r="820" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G820" s="1"/>
+      <c r="G820" s="15"/>
     </row>
     <row r="821" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G821" s="1"/>
+      <c r="G821" s="15"/>
     </row>
     <row r="822" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G822" s="1"/>
+      <c r="G822" s="15"/>
     </row>
     <row r="823" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G823" s="1"/>
+      <c r="G823" s="15"/>
     </row>
     <row r="824" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G824" s="1"/>
+      <c r="G824" s="15"/>
     </row>
     <row r="825" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G825" s="1"/>
+      <c r="G825" s="15"/>
     </row>
     <row r="826" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G826" s="1"/>
+      <c r="G826" s="15"/>
     </row>
     <row r="827" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G827" s="1"/>
+      <c r="G827" s="15"/>
     </row>
     <row r="828" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G828" s="1"/>
+      <c r="G828" s="15"/>
     </row>
     <row r="829" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G829" s="1"/>
+      <c r="G829" s="15"/>
     </row>
     <row r="830" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G830" s="1"/>
+      <c r="G830" s="15"/>
     </row>
     <row r="831" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G831" s="1"/>
+      <c r="G831" s="15"/>
     </row>
     <row r="832" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G832" s="1"/>
+      <c r="G832" s="15"/>
     </row>
     <row r="833" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G833" s="1"/>
+      <c r="G833" s="15"/>
     </row>
     <row r="834" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G834" s="1"/>
+      <c r="G834" s="15"/>
     </row>
     <row r="835" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G835" s="1"/>
+      <c r="G835" s="15"/>
     </row>
     <row r="836" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G836" s="1"/>
+      <c r="G836" s="15"/>
     </row>
     <row r="837" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G837" s="1"/>
+      <c r="G837" s="15"/>
     </row>
     <row r="838" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G838" s="1"/>
+      <c r="G838" s="15"/>
     </row>
     <row r="839" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G839" s="1"/>
+      <c r="G839" s="15"/>
     </row>
     <row r="840" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G840" s="1"/>
+      <c r="G840" s="15"/>
     </row>
     <row r="841" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G841" s="1"/>
+      <c r="G841" s="15"/>
     </row>
     <row r="842" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G842" s="1"/>
+      <c r="G842" s="15"/>
     </row>
     <row r="843" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G843" s="1"/>
+      <c r="G843" s="15"/>
     </row>
     <row r="844" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G844" s="1"/>
+      <c r="G844" s="15"/>
     </row>
     <row r="845" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G845" s="1"/>
+      <c r="G845" s="15"/>
     </row>
     <row r="846" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G846" s="1"/>
+      <c r="G846" s="15"/>
     </row>
     <row r="847" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G847" s="1"/>
+      <c r="G847" s="15"/>
     </row>
     <row r="848" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G848" s="1"/>
+      <c r="G848" s="15"/>
     </row>
     <row r="849" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G849" s="1"/>
+      <c r="G849" s="15"/>
     </row>
     <row r="850" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G850" s="1"/>
+      <c r="G850" s="15"/>
     </row>
     <row r="851" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G851" s="1"/>
+      <c r="G851" s="15"/>
     </row>
     <row r="852" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G852" s="1"/>
+      <c r="G852" s="15"/>
     </row>
     <row r="853" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G853" s="1"/>
+      <c r="G853" s="15"/>
     </row>
     <row r="854" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G854" s="1"/>
+      <c r="G854" s="15"/>
     </row>
     <row r="855" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G855" s="1"/>
+      <c r="G855" s="15"/>
     </row>
     <row r="856" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G856" s="1"/>
+      <c r="G856" s="15"/>
     </row>
     <row r="857" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G857" s="1"/>
+      <c r="G857" s="15"/>
     </row>
     <row r="858" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G858" s="1"/>
+      <c r="G858" s="15"/>
     </row>
     <row r="859" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G859" s="1"/>
+      <c r="G859" s="15"/>
     </row>
     <row r="860" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G860" s="1"/>
+      <c r="G860" s="15"/>
     </row>
     <row r="861" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G861" s="1"/>
+      <c r="G861" s="15"/>
     </row>
     <row r="862" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G862" s="1"/>
+      <c r="G862" s="15"/>
     </row>
     <row r="863" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G863" s="1"/>
+      <c r="G863" s="15"/>
     </row>
     <row r="864" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G864" s="1"/>
+      <c r="G864" s="15"/>
     </row>
     <row r="865" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G865" s="1"/>
+      <c r="G865" s="15"/>
     </row>
     <row r="866" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G866" s="1"/>
+      <c r="G866" s="15"/>
     </row>
     <row r="867" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G867" s="1"/>
+      <c r="G867" s="15"/>
     </row>
     <row r="868" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G868" s="1"/>
+      <c r="G868" s="15"/>
     </row>
     <row r="869" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G869" s="1"/>
+      <c r="G869" s="15"/>
     </row>
     <row r="870" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G870" s="1"/>
+      <c r="G870" s="15"/>
     </row>
     <row r="871" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G871" s="1"/>
+      <c r="G871" s="15"/>
     </row>
     <row r="872" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G872" s="1"/>
+      <c r="G872" s="15"/>
     </row>
     <row r="873" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G873" s="1"/>
+      <c r="G873" s="15"/>
     </row>
     <row r="874" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G874" s="1"/>
+      <c r="G874" s="15"/>
     </row>
     <row r="875" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G875" s="1"/>
+      <c r="G875" s="15"/>
     </row>
     <row r="876" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G876" s="1"/>
+      <c r="G876" s="15"/>
     </row>
     <row r="877" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G877" s="1"/>
+      <c r="G877" s="15"/>
     </row>
     <row r="878" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G878" s="1"/>
+      <c r="G878" s="15"/>
     </row>
     <row r="879" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G879" s="1"/>
+      <c r="G879" s="15"/>
     </row>
     <row r="880" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G880" s="1"/>
+      <c r="G880" s="15"/>
     </row>
     <row r="881" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G881" s="1"/>
+      <c r="G881" s="15"/>
     </row>
     <row r="882" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G882" s="1"/>
+      <c r="G882" s="15"/>
     </row>
     <row r="883" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G883" s="1"/>
+      <c r="G883" s="15"/>
     </row>
     <row r="884" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G884" s="1"/>
+      <c r="G884" s="15"/>
     </row>
     <row r="885" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G885" s="1"/>
+      <c r="G885" s="15"/>
     </row>
     <row r="886" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G886" s="1"/>
+      <c r="G886" s="15"/>
     </row>
     <row r="887" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G887" s="1"/>
+      <c r="G887" s="15"/>
     </row>
     <row r="888" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G888" s="1"/>
+      <c r="G888" s="15"/>
     </row>
     <row r="889" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G889" s="1"/>
+      <c r="G889" s="15"/>
     </row>
     <row r="890" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G890" s="1"/>
+      <c r="G890" s="15"/>
     </row>
     <row r="891" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G891" s="1"/>
+      <c r="G891" s="15"/>
     </row>
     <row r="892" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G892" s="1"/>
+      <c r="G892" s="15"/>
     </row>
     <row r="893" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G893" s="1"/>
+      <c r="G893" s="15"/>
     </row>
     <row r="894" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G894" s="1"/>
+      <c r="G894" s="15"/>
     </row>
     <row r="895" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G895" s="1"/>
+      <c r="G895" s="15"/>
     </row>
     <row r="896" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G896" s="1"/>
+      <c r="G896" s="15"/>
     </row>
     <row r="897" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G897" s="1"/>
+      <c r="G897" s="15"/>
     </row>
     <row r="898" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G898" s="1"/>
+      <c r="G898" s="15"/>
     </row>
     <row r="899" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G899" s="1"/>
+      <c r="G899" s="15"/>
     </row>
     <row r="900" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G900" s="1"/>
+      <c r="G900" s="15"/>
     </row>
     <row r="901" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G901" s="1"/>
+      <c r="G901" s="15"/>
     </row>
     <row r="902" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G902" s="1"/>
+      <c r="G902" s="15"/>
     </row>
     <row r="903" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G903" s="1"/>
+      <c r="G903" s="15"/>
     </row>
     <row r="904" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G904" s="1"/>
+      <c r="G904" s="15"/>
     </row>
     <row r="905" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G905" s="1"/>
+      <c r="G905" s="15"/>
     </row>
     <row r="906" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G906" s="1"/>
+      <c r="G906" s="15"/>
     </row>
     <row r="907" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G907" s="1"/>
+      <c r="G907" s="15"/>
     </row>
     <row r="908" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G908" s="1"/>
+      <c r="G908" s="15"/>
     </row>
     <row r="909" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G909" s="1"/>
+      <c r="G909" s="15"/>
     </row>
     <row r="910" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G910" s="1"/>
+      <c r="G910" s="15"/>
     </row>
     <row r="911" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G911" s="1"/>
+      <c r="G911" s="15"/>
     </row>
     <row r="912" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G912" s="1"/>
+      <c r="G912" s="15"/>
     </row>
     <row r="913" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G913" s="1"/>
+      <c r="G913" s="15"/>
     </row>
     <row r="914" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G914" s="1"/>
+      <c r="G914" s="15"/>
     </row>
     <row r="915" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G915" s="1"/>
+      <c r="G915" s="15"/>
     </row>
     <row r="916" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G916" s="1"/>
+      <c r="G916" s="15"/>
     </row>
     <row r="917" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G917" s="1"/>
+      <c r="G917" s="15"/>
     </row>
     <row r="918" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G918" s="1"/>
+      <c r="G918" s="15"/>
     </row>
     <row r="919" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G919" s="1"/>
+      <c r="G919" s="15"/>
     </row>
     <row r="920" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G920" s="1"/>
+      <c r="G920" s="15"/>
     </row>
     <row r="921" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G921" s="1"/>
+      <c r="G921" s="15"/>
     </row>
     <row r="922" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G922" s="1"/>
+      <c r="G922" s="15"/>
     </row>
     <row r="923" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G923" s="1"/>
+      <c r="G923" s="15"/>
     </row>
     <row r="924" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G924" s="1"/>
+      <c r="G924" s="15"/>
     </row>
     <row r="925" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G925" s="1"/>
+      <c r="G925" s="15"/>
     </row>
     <row r="926" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G926" s="1"/>
+      <c r="G926" s="15"/>
     </row>
     <row r="927" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G927" s="1"/>
+      <c r="G927" s="15"/>
     </row>
     <row r="928" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G928" s="1"/>
+      <c r="G928" s="15"/>
     </row>
     <row r="929" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G929" s="1"/>
+      <c r="G929" s="15"/>
     </row>
     <row r="930" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G930" s="1"/>
+      <c r="G930" s="15"/>
     </row>
     <row r="931" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G931" s="1"/>
+      <c r="G931" s="15"/>
     </row>
     <row r="932" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G932" s="1"/>
+      <c r="G932" s="15"/>
     </row>
     <row r="933" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G933" s="1"/>
+      <c r="G933" s="15"/>
     </row>
     <row r="934" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G934" s="1"/>
+      <c r="G934" s="15"/>
     </row>
     <row r="935" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G935" s="1"/>
+      <c r="G935" s="15"/>
     </row>
     <row r="936" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G936" s="1"/>
+      <c r="G936" s="15"/>
     </row>
     <row r="937" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G937" s="1"/>
+      <c r="G937" s="15"/>
     </row>
     <row r="938" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G938" s="1"/>
+      <c r="G938" s="15"/>
     </row>
     <row r="939" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G939" s="1"/>
+      <c r="G939" s="15"/>
     </row>
     <row r="940" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G940" s="1"/>
+      <c r="G940" s="15"/>
     </row>
     <row r="941" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G941" s="1"/>
+      <c r="G941" s="15"/>
     </row>
     <row r="942" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G942" s="1"/>
+      <c r="G942" s="15"/>
     </row>
     <row r="943" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G943" s="1"/>
+      <c r="G943" s="15"/>
     </row>
     <row r="944" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G944" s="1"/>
+      <c r="G944" s="15"/>
     </row>
     <row r="945" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G945" s="1"/>
+      <c r="G945" s="15"/>
     </row>
     <row r="946" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G946" s="1"/>
+      <c r="G946" s="15"/>
     </row>
     <row r="947" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G947" s="1"/>
+      <c r="G947" s="15"/>
     </row>
     <row r="948" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G948" s="1"/>
+      <c r="G948" s="15"/>
     </row>
     <row r="949" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G949" s="1"/>
+      <c r="G949" s="15"/>
     </row>
     <row r="950" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G950" s="1"/>
+      <c r="G950" s="15"/>
     </row>
     <row r="951" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G951" s="1"/>
+      <c r="G951" s="15"/>
     </row>
     <row r="952" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G952" s="1"/>
+      <c r="G952" s="15"/>
     </row>
     <row r="953" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G953" s="1"/>
+      <c r="G953" s="15"/>
     </row>
     <row r="954" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G954" s="1"/>
+      <c r="G954" s="15"/>
     </row>
     <row r="955" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G955" s="1"/>
+      <c r="G955" s="15"/>
     </row>
     <row r="956" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G956" s="1"/>
+      <c r="G956" s="15"/>
     </row>
     <row r="957" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G957" s="1"/>
+      <c r="G957" s="15"/>
     </row>
     <row r="958" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G958" s="1"/>
+      <c r="G958" s="15"/>
     </row>
     <row r="959" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G959" s="1"/>
+      <c r="G959" s="15"/>
     </row>
     <row r="960" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G960" s="1"/>
+      <c r="G960" s="15"/>
     </row>
     <row r="961" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G961" s="1"/>
+      <c r="G961" s="15"/>
     </row>
     <row r="962" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G962" s="1"/>
+      <c r="G962" s="15"/>
     </row>
     <row r="963" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G963" s="1"/>
+      <c r="G963" s="15"/>
     </row>
     <row r="964" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G964" s="1"/>
+      <c r="G964" s="15"/>
     </row>
     <row r="965" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G965" s="1"/>
+      <c r="G965" s="15"/>
     </row>
     <row r="966" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G966" s="1"/>
+      <c r="G966" s="15"/>
     </row>
     <row r="967" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G967" s="1"/>
+      <c r="G967" s="15"/>
     </row>
     <row r="968" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G968" s="1"/>
+      <c r="G968" s="15"/>
     </row>
     <row r="969" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G969" s="1"/>
+      <c r="G969" s="15"/>
     </row>
     <row r="970" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G970" s="1"/>
+      <c r="G970" s="15"/>
     </row>
     <row r="971" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G971" s="1"/>
+      <c r="G971" s="15"/>
     </row>
     <row r="972" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G972" s="1"/>
+      <c r="G972" s="15"/>
     </row>
     <row r="973" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G973" s="1"/>
+      <c r="G973" s="15"/>
     </row>
     <row r="974" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G974" s="1"/>
+      <c r="G974" s="15"/>
     </row>
     <row r="975" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G975" s="1"/>
+      <c r="G975" s="15"/>
     </row>
     <row r="976" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G976" s="1"/>
+      <c r="G976" s="15"/>
     </row>
     <row r="977" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G977" s="1"/>
+      <c r="G977" s="15"/>
     </row>
     <row r="978" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G978" s="1"/>
+      <c r="G978" s="15"/>
     </row>
     <row r="979" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G979" s="1"/>
+      <c r="G979" s="15"/>
     </row>
     <row r="980" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G980" s="1"/>
+      <c r="G980" s="15"/>
     </row>
     <row r="981" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G981" s="1"/>
+      <c r="G981" s="15"/>
     </row>
     <row r="982" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G982" s="1"/>
+      <c r="G982" s="15"/>
     </row>
     <row r="983" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G983" s="1"/>
+      <c r="G983" s="15"/>
     </row>
     <row r="984" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G984" s="1"/>
+      <c r="G984" s="15"/>
     </row>
     <row r="985" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G985" s="1"/>
+      <c r="G985" s="15"/>
     </row>
     <row r="986" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G986" s="1"/>
+      <c r="G986" s="15"/>
     </row>
     <row r="987" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G987" s="1"/>
+      <c r="G987" s="15"/>
     </row>
     <row r="988" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G988" s="1"/>
+      <c r="G988" s="15"/>
     </row>
     <row r="989" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G989" s="1"/>
+      <c r="G989" s="15"/>
     </row>
     <row r="990" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G990" s="1"/>
+      <c r="G990" s="15"/>
     </row>
     <row r="991" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G991" s="1"/>
+      <c r="G991" s="15"/>
     </row>
     <row r="992" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G992" s="1"/>
+      <c r="G992" s="15"/>
     </row>
     <row r="993" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G993" s="1"/>
+      <c r="G993" s="15"/>
     </row>
     <row r="994" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G994" s="1"/>
+      <c r="G994" s="15"/>
     </row>
     <row r="995" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G995" s="1"/>
+      <c r="G995" s="15"/>
     </row>
     <row r="996" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G996" s="1"/>
+      <c r="G996" s="15"/>
     </row>
     <row r="997" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G997" s="1"/>
+      <c r="G997" s="15"/>
     </row>
     <row r="998" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G998" s="1"/>
+      <c r="G998" s="15"/>
     </row>
     <row r="999" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G999" s="1"/>
+      <c r="G999" s="15"/>
     </row>
     <row r="1000" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G1000" s="1"/>
+      <c r="G1000" s="15"/>
     </row>
     <row r="1001" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G1001" s="1"/>
+      <c r="G1001" s="15"/>
     </row>
     <row r="1002" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G1002" s="1"/>
+      <c r="G1002" s="15"/>
     </row>
     <row r="1003" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G1003" s="1"/>
+      <c r="G1003" s="15"/>
     </row>
     <row r="1004" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G1004" s="1"/>
+      <c r="G1004" s="15"/>
     </row>
     <row r="1005" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G1005" s="1"/>
+      <c r="G1005" s="15"/>
     </row>
     <row r="1006" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G1006" s="1"/>
+      <c r="G1006" s="15"/>
     </row>
     <row r="1007" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G1007" s="1"/>
+      <c r="G1007" s="15"/>
     </row>
     <row r="1008" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G1008" s="1"/>
+      <c r="G1008" s="15"/>
     </row>
     <row r="1009" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G1009" s="1"/>
+      <c r="G1009" s="15"/>
     </row>
     <row r="1010" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G1010" s="1"/>
+      <c r="G1010" s="15"/>
     </row>
     <row r="1011" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G1011" s="1"/>
+      <c r="G1011" s="15"/>
     </row>
     <row r="1012" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G1012" s="1"/>
+      <c r="G1012" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J3:M3"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:M16"/>
@@ -4191,16 +4194,22 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:D12"/>
+    <mergeCell ref="G1:G1012"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A19:E19"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H20:K20"/>
-    <mergeCell ref="G1:G1012"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4215,3609 +4224,3625 @@
   <dimension ref="A1:M1012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="12.5703125" style="2"/>
-    <col min="7" max="7" width="5.140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="12.5703125" style="2"/>
+    <col min="1" max="6" width="12.5703125" style="1"/>
+    <col min="7" max="7" width="5.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="3" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>50</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>4.63</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f>IF(E16&lt;=B4,E16,0)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <f t="shared" ref="F4:F10" si="0">CEILING(D4*C4,1)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2">
+      <c r="G4" s="15"/>
+      <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>50</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>4.63</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <f>IF(ROUND(L22/J4,2)&gt;=I4,I4-H4,ROUND(L22/J4,2))</f>
         <v>50</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <f t="shared" ref="M4:M10" si="1">CEILING(K4*J4,1)</f>
         <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>0</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>75</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>5.26</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f>IF(E16&gt;B4,IF(E16&gt;=B5,B5,E16),0)</f>
         <v>75</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>395</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2">
+      <c r="G5" s="15"/>
+      <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>75</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>5.26</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <f>IF(ROUND(L22/J5,2)&gt;I4,IF(ROUND((L22-M4)/J5,2)&lt;=(I5-I4),ROUND((L22-M4)/J5,2),I5-I4),0)</f>
         <v>25</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>76</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>200</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>7.2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f>IF((D5&gt;=B5),IF(E16&gt;B6,(B6-B5),ABS($E$16 - B5)),0)</f>
         <v>125</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2">
+      <c r="G6" s="15"/>
+      <c r="H6" s="1">
         <v>76</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>200</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>7.2</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <f>IF(L22&gt;SUM(M4:M5),IF((L22-SUM(M4:M5))/J6&gt;(I6-I5),I6-I5,ROUND((L22-SUM(M4:M5))/J6,2)),0)</f>
         <v>71.38</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <f t="shared" si="1"/>
         <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>201</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>300</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>7.59</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f>IF((D6&gt;=(B6-B5)),IF(E16&gt;B7,(B7-B6),ABS($E$16 - B6)),0)</f>
         <v>100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>759</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2">
+      <c r="G7" s="15"/>
+      <c r="H7" s="1">
         <v>201</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>300</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>7.59</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <f>IF(L22&gt;SUM(M4:M6),IF((L22-SUM(M4:M6))/J7&gt;(I7-I6),I7-I6,ROUND((L22-SUM(M4:M6))/J7,2)),0)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>301</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>400</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>8.02</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f>IF((D7&gt;=(B7-B6)),IF(E16&gt;B8,(B8-B7),ABS($E$16 - B7)),0)</f>
         <v>100</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>802</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2">
+      <c r="G8" s="15"/>
+      <c r="H8" s="1">
         <v>301</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>400</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>8.02</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <f>IF(L22&gt;SUM(M4:M7),IF((L22-SUM(M4:M7))/J8&gt;(I8-I7),I8-I7,ROUND((L22-SUM(M4:M7))/J8,2)),0)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>401</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>600</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>12.67</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <f>IF((D8&gt;=(B8-B7)),IF(E16&gt;B9,(B9-B8),ABS($E$16 - B8)),0)</f>
         <v>200</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>2534</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2">
+      <c r="G9" s="15"/>
+      <c r="H9" s="1">
         <v>401</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>600</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>12.67</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <f>IF(L22&gt;SUM(M4:M8),IF((L22-SUM(M4:M8))/J9&gt;(I9-I8),I9-I8,ROUND((L22-SUM(M4:M8))/J9,2)),0)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>601</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <f>IF(E16&gt;B9,E16,0)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>14.61</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <f>IF((D9&gt;=(B9-B8)),E16-B9,0)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2">
+      <c r="G10" s="15"/>
+      <c r="H10" s="1">
         <v>601</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <f>IF(L22&gt;SUM(M4:M9),ROUND(((L22-SUM(M4:M9))/J10),2)+I9,601)</f>
         <v>601</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>14.61</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <f>IF(L22&gt;SUM(M4:M9),IF((L22-SUM(M4:M9))/J10&gt;(I10-I9),I10-I9,ROUND((L22-SUM(M4:M9))/J10,2)),0)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="3">
         <f>CEILING(SUM(F4:F10),1)</f>
         <v>5390</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="15"/>
+      <c r="H11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="6">
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="3">
         <f>CEILING(SUM(M4:M10),1)</f>
         <v>878</v>
       </c>
     </row>
     <row r="12" spans="1:13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="8">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="5">
         <v>10</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="4">
         <f>E12</f>
         <v>10</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="14">
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="9">
         <v>40</v>
       </c>
-      <c r="M12" s="6">
-        <f>L12</f>
+      <c r="M12" s="16">
+        <f>IF(L21&gt;L12,L12,0)</f>
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="3">
         <v>42</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="4">
         <f>CEILING(E13*D13,1)</f>
         <v>42</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="5" t="s">
+      <c r="G13" s="15"/>
+      <c r="H13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6">
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="3">
         <v>42</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="9">
         <v>1</v>
       </c>
-      <c r="M13" s="6">
-        <f>CEILING(L13*K13,1)</f>
+      <c r="M13" s="16">
+        <f>IF(L21&gt;L13*K13,CEILING(L13*K13,1),0)</f>
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="12">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="7">
         <v>0.05</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="4">
         <f>CEILING(SUM(F11:F13)*E14,1)</f>
         <v>273</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="14">
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="9">
         <v>0.05</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="16">
         <f>ROUND((L21+M15)*L14,2)</f>
         <v>49.53</v>
       </c>
     </row>
     <row r="15" spans="1:13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="12">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="7">
         <v>0.05</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="4">
         <f>CEILING(SUM(F11:F13)*E15,1)</f>
         <v>273</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="14">
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="9">
         <v>0.01</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="16">
         <f>-(L21 - L21*L14)*L15</f>
         <v>-9.5</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="6">
         <v>600</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="5" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="15" t="s">
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="12">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="7">
         <f>CEILING(SUM(F11:F14),1)</f>
         <v>5715</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="5" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="12">
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="7">
         <v>1000</v>
       </c>
-      <c r="M18" s="7"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="13">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="8">
         <f>CEILING(SUM(F11:F15),1)</f>
         <v>5988</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="5" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="7"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="1"/>
-      <c r="H20" s="5" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="7"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="1"/>
-      <c r="H21" s="5" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="6" t="s">
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="12">
         <f>SUM(L18:L20)</f>
         <v>1000</v>
       </c>
-      <c r="M21" s="11"/>
+      <c r="M21" s="13"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="1"/>
-      <c r="H22" s="5" t="s">
+      <c r="G22" s="15"/>
+      <c r="H22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="6" t="s">
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="12">
         <f>ROUND(L21-SUM(M12:M15),2)</f>
         <v>877.97</v>
       </c>
-      <c r="M22" s="11"/>
+      <c r="M22" s="13"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G23" s="1"/>
-      <c r="H23" s="5" t="s">
+      <c r="G23" s="15"/>
+      <c r="H23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="6" t="s">
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="12">
         <f>ROUND(SUM(K4:K10),2)</f>
         <v>146.38</v>
       </c>
-      <c r="M23" s="11"/>
+      <c r="M23" s="13"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G24" s="1"/>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G25" s="1"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G26" s="1"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G27" s="1"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G28" s="1"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G29" s="1"/>
+      <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G30" s="1"/>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G31" s="1"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G32" s="1"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G33" s="1"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G34" s="1"/>
+      <c r="G34" s="15"/>
     </row>
     <row r="35" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G35" s="1"/>
+      <c r="G35" s="15"/>
     </row>
     <row r="36" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G36" s="1"/>
+      <c r="G36" s="15"/>
     </row>
     <row r="37" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G37" s="1"/>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G38" s="1"/>
+      <c r="G38" s="15"/>
     </row>
     <row r="39" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G39" s="1"/>
+      <c r="G39" s="15"/>
     </row>
     <row r="40" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G40" s="1"/>
+      <c r="G40" s="15"/>
     </row>
     <row r="41" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G41" s="1"/>
+      <c r="G41" s="15"/>
     </row>
     <row r="42" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G42" s="1"/>
+      <c r="G42" s="15"/>
     </row>
     <row r="43" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G43" s="1"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G44" s="1"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="45" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G45" s="1"/>
+      <c r="G45" s="15"/>
     </row>
     <row r="46" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G46" s="1"/>
+      <c r="G46" s="15"/>
     </row>
     <row r="47" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G47" s="1"/>
+      <c r="G47" s="15"/>
     </row>
     <row r="48" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G48" s="1"/>
+      <c r="G48" s="15"/>
     </row>
     <row r="49" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G49" s="1"/>
+      <c r="G49" s="15"/>
     </row>
     <row r="50" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G50" s="1"/>
+      <c r="G50" s="15"/>
     </row>
     <row r="51" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G51" s="1"/>
+      <c r="G51" s="15"/>
     </row>
     <row r="52" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G52" s="1"/>
+      <c r="G52" s="15"/>
     </row>
     <row r="53" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G53" s="1"/>
+      <c r="G53" s="15"/>
     </row>
     <row r="54" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G54" s="1"/>
+      <c r="G54" s="15"/>
     </row>
     <row r="55" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G55" s="1"/>
+      <c r="G55" s="15"/>
     </row>
     <row r="56" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G56" s="1"/>
+      <c r="G56" s="15"/>
     </row>
     <row r="57" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G57" s="1"/>
+      <c r="G57" s="15"/>
     </row>
     <row r="58" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G58" s="1"/>
+      <c r="G58" s="15"/>
     </row>
     <row r="59" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G59" s="1"/>
+      <c r="G59" s="15"/>
     </row>
     <row r="60" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G60" s="1"/>
+      <c r="G60" s="15"/>
     </row>
     <row r="61" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G61" s="1"/>
+      <c r="G61" s="15"/>
     </row>
     <row r="62" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G62" s="1"/>
+      <c r="G62" s="15"/>
     </row>
     <row r="63" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G63" s="1"/>
+      <c r="G63" s="15"/>
     </row>
     <row r="64" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G64" s="1"/>
+      <c r="G64" s="15"/>
     </row>
     <row r="65" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G65" s="1"/>
+      <c r="G65" s="15"/>
     </row>
     <row r="66" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G66" s="1"/>
+      <c r="G66" s="15"/>
     </row>
     <row r="67" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G67" s="1"/>
+      <c r="G67" s="15"/>
     </row>
     <row r="68" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G68" s="1"/>
+      <c r="G68" s="15"/>
     </row>
     <row r="69" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G69" s="1"/>
+      <c r="G69" s="15"/>
     </row>
     <row r="70" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G70" s="1"/>
+      <c r="G70" s="15"/>
     </row>
     <row r="71" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G71" s="1"/>
+      <c r="G71" s="15"/>
     </row>
     <row r="72" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G72" s="1"/>
+      <c r="G72" s="15"/>
     </row>
     <row r="73" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G73" s="1"/>
+      <c r="G73" s="15"/>
     </row>
     <row r="74" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G74" s="1"/>
+      <c r="G74" s="15"/>
     </row>
     <row r="75" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G75" s="1"/>
+      <c r="G75" s="15"/>
     </row>
     <row r="76" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G76" s="1"/>
+      <c r="G76" s="15"/>
     </row>
     <row r="77" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G77" s="1"/>
+      <c r="G77" s="15"/>
     </row>
     <row r="78" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G78" s="1"/>
+      <c r="G78" s="15"/>
     </row>
     <row r="79" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G79" s="1"/>
+      <c r="G79" s="15"/>
     </row>
     <row r="80" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G80" s="1"/>
+      <c r="G80" s="15"/>
     </row>
     <row r="81" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G81" s="1"/>
+      <c r="G81" s="15"/>
     </row>
     <row r="82" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G82" s="1"/>
+      <c r="G82" s="15"/>
     </row>
     <row r="83" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G83" s="1"/>
+      <c r="G83" s="15"/>
     </row>
     <row r="84" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G84" s="1"/>
+      <c r="G84" s="15"/>
     </row>
     <row r="85" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G85" s="1"/>
+      <c r="G85" s="15"/>
     </row>
     <row r="86" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G86" s="1"/>
+      <c r="G86" s="15"/>
     </row>
     <row r="87" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G87" s="1"/>
+      <c r="G87" s="15"/>
     </row>
     <row r="88" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G88" s="1"/>
+      <c r="G88" s="15"/>
     </row>
     <row r="89" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G89" s="1"/>
+      <c r="G89" s="15"/>
     </row>
     <row r="90" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G90" s="1"/>
+      <c r="G90" s="15"/>
     </row>
     <row r="91" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G91" s="1"/>
+      <c r="G91" s="15"/>
     </row>
     <row r="92" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G92" s="1"/>
+      <c r="G92" s="15"/>
     </row>
     <row r="93" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G93" s="1"/>
+      <c r="G93" s="15"/>
     </row>
     <row r="94" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G94" s="1"/>
+      <c r="G94" s="15"/>
     </row>
     <row r="95" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G95" s="1"/>
+      <c r="G95" s="15"/>
     </row>
     <row r="96" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G96" s="1"/>
+      <c r="G96" s="15"/>
     </row>
     <row r="97" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G97" s="1"/>
+      <c r="G97" s="15"/>
     </row>
     <row r="98" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G98" s="1"/>
+      <c r="G98" s="15"/>
     </row>
     <row r="99" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G99" s="1"/>
+      <c r="G99" s="15"/>
     </row>
     <row r="100" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G100" s="1"/>
+      <c r="G100" s="15"/>
     </row>
     <row r="101" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G101" s="1"/>
+      <c r="G101" s="15"/>
     </row>
     <row r="102" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G102" s="1"/>
+      <c r="G102" s="15"/>
     </row>
     <row r="103" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G103" s="1"/>
+      <c r="G103" s="15"/>
     </row>
     <row r="104" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G104" s="1"/>
+      <c r="G104" s="15"/>
     </row>
     <row r="105" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G105" s="1"/>
+      <c r="G105" s="15"/>
     </row>
     <row r="106" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G106" s="1"/>
+      <c r="G106" s="15"/>
     </row>
     <row r="107" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G107" s="1"/>
+      <c r="G107" s="15"/>
     </row>
     <row r="108" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G108" s="1"/>
+      <c r="G108" s="15"/>
     </row>
     <row r="109" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G109" s="1"/>
+      <c r="G109" s="15"/>
     </row>
     <row r="110" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G110" s="1"/>
+      <c r="G110" s="15"/>
     </row>
     <row r="111" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G111" s="1"/>
+      <c r="G111" s="15"/>
     </row>
     <row r="112" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G112" s="1"/>
+      <c r="G112" s="15"/>
     </row>
     <row r="113" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G113" s="1"/>
+      <c r="G113" s="15"/>
     </row>
     <row r="114" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G114" s="1"/>
+      <c r="G114" s="15"/>
     </row>
     <row r="115" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G115" s="1"/>
+      <c r="G115" s="15"/>
     </row>
     <row r="116" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G116" s="1"/>
+      <c r="G116" s="15"/>
     </row>
     <row r="117" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G117" s="1"/>
+      <c r="G117" s="15"/>
     </row>
     <row r="118" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G118" s="1"/>
+      <c r="G118" s="15"/>
     </row>
     <row r="119" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G119" s="1"/>
+      <c r="G119" s="15"/>
     </row>
     <row r="120" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G120" s="1"/>
+      <c r="G120" s="15"/>
     </row>
     <row r="121" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G121" s="1"/>
+      <c r="G121" s="15"/>
     </row>
     <row r="122" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G122" s="1"/>
+      <c r="G122" s="15"/>
     </row>
     <row r="123" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G123" s="1"/>
+      <c r="G123" s="15"/>
     </row>
     <row r="124" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G124" s="1"/>
+      <c r="G124" s="15"/>
     </row>
     <row r="125" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G125" s="1"/>
+      <c r="G125" s="15"/>
     </row>
     <row r="126" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G126" s="1"/>
+      <c r="G126" s="15"/>
     </row>
     <row r="127" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G127" s="1"/>
+      <c r="G127" s="15"/>
     </row>
     <row r="128" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G128" s="1"/>
+      <c r="G128" s="15"/>
     </row>
     <row r="129" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G129" s="1"/>
+      <c r="G129" s="15"/>
     </row>
     <row r="130" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G130" s="1"/>
+      <c r="G130" s="15"/>
     </row>
     <row r="131" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G131" s="1"/>
+      <c r="G131" s="15"/>
     </row>
     <row r="132" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G132" s="1"/>
+      <c r="G132" s="15"/>
     </row>
     <row r="133" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G133" s="1"/>
+      <c r="G133" s="15"/>
     </row>
     <row r="134" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G134" s="1"/>
+      <c r="G134" s="15"/>
     </row>
     <row r="135" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G135" s="1"/>
+      <c r="G135" s="15"/>
     </row>
     <row r="136" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G136" s="1"/>
+      <c r="G136" s="15"/>
     </row>
     <row r="137" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G137" s="1"/>
+      <c r="G137" s="15"/>
     </row>
     <row r="138" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G138" s="1"/>
+      <c r="G138" s="15"/>
     </row>
     <row r="139" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G139" s="1"/>
+      <c r="G139" s="15"/>
     </row>
     <row r="140" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G140" s="1"/>
+      <c r="G140" s="15"/>
     </row>
     <row r="141" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G141" s="1"/>
+      <c r="G141" s="15"/>
     </row>
     <row r="142" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G142" s="1"/>
+      <c r="G142" s="15"/>
     </row>
     <row r="143" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G143" s="1"/>
+      <c r="G143" s="15"/>
     </row>
     <row r="144" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G144" s="1"/>
+      <c r="G144" s="15"/>
     </row>
     <row r="145" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G145" s="1"/>
+      <c r="G145" s="15"/>
     </row>
     <row r="146" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G146" s="1"/>
+      <c r="G146" s="15"/>
     </row>
     <row r="147" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G147" s="1"/>
+      <c r="G147" s="15"/>
     </row>
     <row r="148" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G148" s="1"/>
+      <c r="G148" s="15"/>
     </row>
     <row r="149" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G149" s="1"/>
+      <c r="G149" s="15"/>
     </row>
     <row r="150" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G150" s="1"/>
+      <c r="G150" s="15"/>
     </row>
     <row r="151" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G151" s="1"/>
+      <c r="G151" s="15"/>
     </row>
     <row r="152" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G152" s="1"/>
+      <c r="G152" s="15"/>
     </row>
     <row r="153" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G153" s="1"/>
+      <c r="G153" s="15"/>
     </row>
     <row r="154" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G154" s="1"/>
+      <c r="G154" s="15"/>
     </row>
     <row r="155" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G155" s="1"/>
+      <c r="G155" s="15"/>
     </row>
     <row r="156" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G156" s="1"/>
+      <c r="G156" s="15"/>
     </row>
     <row r="157" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G157" s="1"/>
+      <c r="G157" s="15"/>
     </row>
     <row r="158" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G158" s="1"/>
+      <c r="G158" s="15"/>
     </row>
     <row r="159" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G159" s="1"/>
+      <c r="G159" s="15"/>
     </row>
     <row r="160" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G160" s="1"/>
+      <c r="G160" s="15"/>
     </row>
     <row r="161" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G161" s="1"/>
+      <c r="G161" s="15"/>
     </row>
     <row r="162" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G162" s="1"/>
+      <c r="G162" s="15"/>
     </row>
     <row r="163" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G163" s="1"/>
+      <c r="G163" s="15"/>
     </row>
     <row r="164" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G164" s="1"/>
+      <c r="G164" s="15"/>
     </row>
     <row r="165" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G165" s="1"/>
+      <c r="G165" s="15"/>
     </row>
     <row r="166" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G166" s="1"/>
+      <c r="G166" s="15"/>
     </row>
     <row r="167" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G167" s="1"/>
+      <c r="G167" s="15"/>
     </row>
     <row r="168" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G168" s="1"/>
+      <c r="G168" s="15"/>
     </row>
     <row r="169" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G169" s="1"/>
+      <c r="G169" s="15"/>
     </row>
     <row r="170" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G170" s="1"/>
+      <c r="G170" s="15"/>
     </row>
     <row r="171" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G171" s="1"/>
+      <c r="G171" s="15"/>
     </row>
     <row r="172" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G172" s="1"/>
+      <c r="G172" s="15"/>
     </row>
     <row r="173" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G173" s="1"/>
+      <c r="G173" s="15"/>
     </row>
     <row r="174" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G174" s="1"/>
+      <c r="G174" s="15"/>
     </row>
     <row r="175" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G175" s="1"/>
+      <c r="G175" s="15"/>
     </row>
     <row r="176" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G176" s="1"/>
+      <c r="G176" s="15"/>
     </row>
     <row r="177" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G177" s="1"/>
+      <c r="G177" s="15"/>
     </row>
     <row r="178" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G178" s="1"/>
+      <c r="G178" s="15"/>
     </row>
     <row r="179" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G179" s="1"/>
+      <c r="G179" s="15"/>
     </row>
     <row r="180" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G180" s="1"/>
+      <c r="G180" s="15"/>
     </row>
     <row r="181" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G181" s="1"/>
+      <c r="G181" s="15"/>
     </row>
     <row r="182" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G182" s="1"/>
+      <c r="G182" s="15"/>
     </row>
     <row r="183" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G183" s="1"/>
+      <c r="G183" s="15"/>
     </row>
     <row r="184" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G184" s="1"/>
+      <c r="G184" s="15"/>
     </row>
     <row r="185" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G185" s="1"/>
+      <c r="G185" s="15"/>
     </row>
     <row r="186" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G186" s="1"/>
+      <c r="G186" s="15"/>
     </row>
     <row r="187" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G187" s="1"/>
+      <c r="G187" s="15"/>
     </row>
     <row r="188" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G188" s="1"/>
+      <c r="G188" s="15"/>
     </row>
     <row r="189" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G189" s="1"/>
+      <c r="G189" s="15"/>
     </row>
     <row r="190" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G190" s="1"/>
+      <c r="G190" s="15"/>
     </row>
     <row r="191" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G191" s="1"/>
+      <c r="G191" s="15"/>
     </row>
     <row r="192" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G192" s="1"/>
+      <c r="G192" s="15"/>
     </row>
     <row r="193" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G193" s="1"/>
+      <c r="G193" s="15"/>
     </row>
     <row r="194" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G194" s="1"/>
+      <c r="G194" s="15"/>
     </row>
     <row r="195" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G195" s="1"/>
+      <c r="G195" s="15"/>
     </row>
     <row r="196" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G196" s="1"/>
+      <c r="G196" s="15"/>
     </row>
     <row r="197" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G197" s="1"/>
+      <c r="G197" s="15"/>
     </row>
     <row r="198" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G198" s="1"/>
+      <c r="G198" s="15"/>
     </row>
     <row r="199" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G199" s="1"/>
+      <c r="G199" s="15"/>
     </row>
     <row r="200" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G200" s="1"/>
+      <c r="G200" s="15"/>
     </row>
     <row r="201" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G201" s="1"/>
+      <c r="G201" s="15"/>
     </row>
     <row r="202" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G202" s="1"/>
+      <c r="G202" s="15"/>
     </row>
     <row r="203" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G203" s="1"/>
+      <c r="G203" s="15"/>
     </row>
     <row r="204" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G204" s="1"/>
+      <c r="G204" s="15"/>
     </row>
     <row r="205" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G205" s="1"/>
+      <c r="G205" s="15"/>
     </row>
     <row r="206" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G206" s="1"/>
+      <c r="G206" s="15"/>
     </row>
     <row r="207" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G207" s="1"/>
+      <c r="G207" s="15"/>
     </row>
     <row r="208" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G208" s="1"/>
+      <c r="G208" s="15"/>
     </row>
     <row r="209" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G209" s="1"/>
+      <c r="G209" s="15"/>
     </row>
     <row r="210" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G210" s="1"/>
+      <c r="G210" s="15"/>
     </row>
     <row r="211" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G211" s="1"/>
+      <c r="G211" s="15"/>
     </row>
     <row r="212" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G212" s="1"/>
+      <c r="G212" s="15"/>
     </row>
     <row r="213" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G213" s="1"/>
+      <c r="G213" s="15"/>
     </row>
     <row r="214" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G214" s="1"/>
+      <c r="G214" s="15"/>
     </row>
     <row r="215" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G215" s="1"/>
+      <c r="G215" s="15"/>
     </row>
     <row r="216" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G216" s="1"/>
+      <c r="G216" s="15"/>
     </row>
     <row r="217" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G217" s="1"/>
+      <c r="G217" s="15"/>
     </row>
     <row r="218" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G218" s="1"/>
+      <c r="G218" s="15"/>
     </row>
     <row r="219" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G219" s="1"/>
+      <c r="G219" s="15"/>
     </row>
     <row r="220" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G220" s="1"/>
+      <c r="G220" s="15"/>
     </row>
     <row r="221" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G221" s="1"/>
+      <c r="G221" s="15"/>
     </row>
     <row r="222" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G222" s="1"/>
+      <c r="G222" s="15"/>
     </row>
     <row r="223" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G223" s="1"/>
+      <c r="G223" s="15"/>
     </row>
     <row r="224" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G224" s="1"/>
+      <c r="G224" s="15"/>
     </row>
     <row r="225" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G225" s="1"/>
+      <c r="G225" s="15"/>
     </row>
     <row r="226" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G226" s="1"/>
+      <c r="G226" s="15"/>
     </row>
     <row r="227" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G227" s="1"/>
+      <c r="G227" s="15"/>
     </row>
     <row r="228" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G228" s="1"/>
+      <c r="G228" s="15"/>
     </row>
     <row r="229" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G229" s="1"/>
+      <c r="G229" s="15"/>
     </row>
     <row r="230" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G230" s="1"/>
+      <c r="G230" s="15"/>
     </row>
     <row r="231" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G231" s="1"/>
+      <c r="G231" s="15"/>
     </row>
     <row r="232" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G232" s="1"/>
+      <c r="G232" s="15"/>
     </row>
     <row r="233" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G233" s="1"/>
+      <c r="G233" s="15"/>
     </row>
     <row r="234" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G234" s="1"/>
+      <c r="G234" s="15"/>
     </row>
     <row r="235" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G235" s="1"/>
+      <c r="G235" s="15"/>
     </row>
     <row r="236" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G236" s="1"/>
+      <c r="G236" s="15"/>
     </row>
     <row r="237" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G237" s="1"/>
+      <c r="G237" s="15"/>
     </row>
     <row r="238" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G238" s="1"/>
+      <c r="G238" s="15"/>
     </row>
     <row r="239" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G239" s="1"/>
+      <c r="G239" s="15"/>
     </row>
     <row r="240" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G240" s="1"/>
+      <c r="G240" s="15"/>
     </row>
     <row r="241" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G241" s="1"/>
+      <c r="G241" s="15"/>
     </row>
     <row r="242" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G242" s="1"/>
+      <c r="G242" s="15"/>
     </row>
     <row r="243" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G243" s="1"/>
+      <c r="G243" s="15"/>
     </row>
     <row r="244" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G244" s="1"/>
+      <c r="G244" s="15"/>
     </row>
     <row r="245" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G245" s="1"/>
+      <c r="G245" s="15"/>
     </row>
     <row r="246" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G246" s="1"/>
+      <c r="G246" s="15"/>
     </row>
     <row r="247" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G247" s="1"/>
+      <c r="G247" s="15"/>
     </row>
     <row r="248" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G248" s="1"/>
+      <c r="G248" s="15"/>
     </row>
     <row r="249" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G249" s="1"/>
+      <c r="G249" s="15"/>
     </row>
     <row r="250" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G250" s="1"/>
+      <c r="G250" s="15"/>
     </row>
     <row r="251" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G251" s="1"/>
+      <c r="G251" s="15"/>
     </row>
     <row r="252" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G252" s="1"/>
+      <c r="G252" s="15"/>
     </row>
     <row r="253" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G253" s="1"/>
+      <c r="G253" s="15"/>
     </row>
     <row r="254" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G254" s="1"/>
+      <c r="G254" s="15"/>
     </row>
     <row r="255" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G255" s="1"/>
+      <c r="G255" s="15"/>
     </row>
     <row r="256" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G256" s="1"/>
+      <c r="G256" s="15"/>
     </row>
     <row r="257" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G257" s="1"/>
+      <c r="G257" s="15"/>
     </row>
     <row r="258" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G258" s="1"/>
+      <c r="G258" s="15"/>
     </row>
     <row r="259" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G259" s="1"/>
+      <c r="G259" s="15"/>
     </row>
     <row r="260" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G260" s="1"/>
+      <c r="G260" s="15"/>
     </row>
     <row r="261" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G261" s="1"/>
+      <c r="G261" s="15"/>
     </row>
     <row r="262" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G262" s="1"/>
+      <c r="G262" s="15"/>
     </row>
     <row r="263" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G263" s="1"/>
+      <c r="G263" s="15"/>
     </row>
     <row r="264" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G264" s="1"/>
+      <c r="G264" s="15"/>
     </row>
     <row r="265" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G265" s="1"/>
+      <c r="G265" s="15"/>
     </row>
     <row r="266" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G266" s="1"/>
+      <c r="G266" s="15"/>
     </row>
     <row r="267" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G267" s="1"/>
+      <c r="G267" s="15"/>
     </row>
     <row r="268" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G268" s="1"/>
+      <c r="G268" s="15"/>
     </row>
     <row r="269" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G269" s="1"/>
+      <c r="G269" s="15"/>
     </row>
     <row r="270" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G270" s="1"/>
+      <c r="G270" s="15"/>
     </row>
     <row r="271" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G271" s="1"/>
+      <c r="G271" s="15"/>
     </row>
     <row r="272" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G272" s="1"/>
+      <c r="G272" s="15"/>
     </row>
     <row r="273" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G273" s="1"/>
+      <c r="G273" s="15"/>
     </row>
     <row r="274" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G274" s="1"/>
+      <c r="G274" s="15"/>
     </row>
     <row r="275" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G275" s="1"/>
+      <c r="G275" s="15"/>
     </row>
     <row r="276" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G276" s="1"/>
+      <c r="G276" s="15"/>
     </row>
     <row r="277" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G277" s="1"/>
+      <c r="G277" s="15"/>
     </row>
     <row r="278" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G278" s="1"/>
+      <c r="G278" s="15"/>
     </row>
     <row r="279" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G279" s="1"/>
+      <c r="G279" s="15"/>
     </row>
     <row r="280" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G280" s="1"/>
+      <c r="G280" s="15"/>
     </row>
     <row r="281" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G281" s="1"/>
+      <c r="G281" s="15"/>
     </row>
     <row r="282" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G282" s="1"/>
+      <c r="G282" s="15"/>
     </row>
     <row r="283" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G283" s="1"/>
+      <c r="G283" s="15"/>
     </row>
     <row r="284" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G284" s="1"/>
+      <c r="G284" s="15"/>
     </row>
     <row r="285" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G285" s="1"/>
+      <c r="G285" s="15"/>
     </row>
     <row r="286" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G286" s="1"/>
+      <c r="G286" s="15"/>
     </row>
     <row r="287" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G287" s="1"/>
+      <c r="G287" s="15"/>
     </row>
     <row r="288" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G288" s="1"/>
+      <c r="G288" s="15"/>
     </row>
     <row r="289" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G289" s="1"/>
+      <c r="G289" s="15"/>
     </row>
     <row r="290" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G290" s="1"/>
+      <c r="G290" s="15"/>
     </row>
     <row r="291" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G291" s="1"/>
+      <c r="G291" s="15"/>
     </row>
     <row r="292" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G292" s="1"/>
+      <c r="G292" s="15"/>
     </row>
     <row r="293" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G293" s="1"/>
+      <c r="G293" s="15"/>
     </row>
     <row r="294" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G294" s="1"/>
+      <c r="G294" s="15"/>
     </row>
     <row r="295" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G295" s="1"/>
+      <c r="G295" s="15"/>
     </row>
     <row r="296" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G296" s="1"/>
+      <c r="G296" s="15"/>
     </row>
     <row r="297" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G297" s="1"/>
+      <c r="G297" s="15"/>
     </row>
     <row r="298" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G298" s="1"/>
+      <c r="G298" s="15"/>
     </row>
     <row r="299" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G299" s="1"/>
+      <c r="G299" s="15"/>
     </row>
     <row r="300" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G300" s="1"/>
+      <c r="G300" s="15"/>
     </row>
     <row r="301" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G301" s="1"/>
+      <c r="G301" s="15"/>
     </row>
     <row r="302" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G302" s="1"/>
+      <c r="G302" s="15"/>
     </row>
     <row r="303" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G303" s="1"/>
+      <c r="G303" s="15"/>
     </row>
     <row r="304" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G304" s="1"/>
+      <c r="G304" s="15"/>
     </row>
     <row r="305" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G305" s="1"/>
+      <c r="G305" s="15"/>
     </row>
     <row r="306" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G306" s="1"/>
+      <c r="G306" s="15"/>
     </row>
     <row r="307" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G307" s="1"/>
+      <c r="G307" s="15"/>
     </row>
     <row r="308" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G308" s="1"/>
+      <c r="G308" s="15"/>
     </row>
     <row r="309" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G309" s="1"/>
+      <c r="G309" s="15"/>
     </row>
     <row r="310" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G310" s="1"/>
+      <c r="G310" s="15"/>
     </row>
     <row r="311" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G311" s="1"/>
+      <c r="G311" s="15"/>
     </row>
     <row r="312" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G312" s="1"/>
+      <c r="G312" s="15"/>
     </row>
     <row r="313" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G313" s="1"/>
+      <c r="G313" s="15"/>
     </row>
     <row r="314" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G314" s="1"/>
+      <c r="G314" s="15"/>
     </row>
     <row r="315" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G315" s="1"/>
+      <c r="G315" s="15"/>
     </row>
     <row r="316" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G316" s="1"/>
+      <c r="G316" s="15"/>
     </row>
     <row r="317" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G317" s="1"/>
+      <c r="G317" s="15"/>
     </row>
     <row r="318" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G318" s="1"/>
+      <c r="G318" s="15"/>
     </row>
     <row r="319" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G319" s="1"/>
+      <c r="G319" s="15"/>
     </row>
     <row r="320" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G320" s="1"/>
+      <c r="G320" s="15"/>
     </row>
     <row r="321" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G321" s="1"/>
+      <c r="G321" s="15"/>
     </row>
     <row r="322" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G322" s="1"/>
+      <c r="G322" s="15"/>
     </row>
     <row r="323" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G323" s="1"/>
+      <c r="G323" s="15"/>
     </row>
     <row r="324" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G324" s="1"/>
+      <c r="G324" s="15"/>
     </row>
     <row r="325" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G325" s="1"/>
+      <c r="G325" s="15"/>
     </row>
     <row r="326" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G326" s="1"/>
+      <c r="G326" s="15"/>
     </row>
     <row r="327" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G327" s="1"/>
+      <c r="G327" s="15"/>
     </row>
     <row r="328" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G328" s="1"/>
+      <c r="G328" s="15"/>
     </row>
     <row r="329" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G329" s="1"/>
+      <c r="G329" s="15"/>
     </row>
     <row r="330" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G330" s="1"/>
+      <c r="G330" s="15"/>
     </row>
     <row r="331" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G331" s="1"/>
+      <c r="G331" s="15"/>
     </row>
     <row r="332" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G332" s="1"/>
+      <c r="G332" s="15"/>
     </row>
     <row r="333" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G333" s="1"/>
+      <c r="G333" s="15"/>
     </row>
     <row r="334" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G334" s="1"/>
+      <c r="G334" s="15"/>
     </row>
     <row r="335" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G335" s="1"/>
+      <c r="G335" s="15"/>
     </row>
     <row r="336" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G336" s="1"/>
+      <c r="G336" s="15"/>
     </row>
     <row r="337" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G337" s="1"/>
+      <c r="G337" s="15"/>
     </row>
     <row r="338" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G338" s="1"/>
+      <c r="G338" s="15"/>
     </row>
     <row r="339" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G339" s="1"/>
+      <c r="G339" s="15"/>
     </row>
     <row r="340" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G340" s="1"/>
+      <c r="G340" s="15"/>
     </row>
     <row r="341" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G341" s="1"/>
+      <c r="G341" s="15"/>
     </row>
     <row r="342" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G342" s="1"/>
+      <c r="G342" s="15"/>
     </row>
     <row r="343" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G343" s="1"/>
+      <c r="G343" s="15"/>
     </row>
     <row r="344" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G344" s="1"/>
+      <c r="G344" s="15"/>
     </row>
     <row r="345" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G345" s="1"/>
+      <c r="G345" s="15"/>
     </row>
     <row r="346" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G346" s="1"/>
+      <c r="G346" s="15"/>
     </row>
     <row r="347" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G347" s="1"/>
+      <c r="G347" s="15"/>
     </row>
     <row r="348" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G348" s="1"/>
+      <c r="G348" s="15"/>
     </row>
     <row r="349" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G349" s="1"/>
+      <c r="G349" s="15"/>
     </row>
     <row r="350" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G350" s="1"/>
+      <c r="G350" s="15"/>
     </row>
     <row r="351" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G351" s="1"/>
+      <c r="G351" s="15"/>
     </row>
     <row r="352" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G352" s="1"/>
+      <c r="G352" s="15"/>
     </row>
     <row r="353" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G353" s="1"/>
+      <c r="G353" s="15"/>
     </row>
     <row r="354" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G354" s="1"/>
+      <c r="G354" s="15"/>
     </row>
     <row r="355" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G355" s="1"/>
+      <c r="G355" s="15"/>
     </row>
     <row r="356" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G356" s="1"/>
+      <c r="G356" s="15"/>
     </row>
     <row r="357" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G357" s="1"/>
+      <c r="G357" s="15"/>
     </row>
     <row r="358" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G358" s="1"/>
+      <c r="G358" s="15"/>
     </row>
     <row r="359" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G359" s="1"/>
+      <c r="G359" s="15"/>
     </row>
     <row r="360" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G360" s="1"/>
+      <c r="G360" s="15"/>
     </row>
     <row r="361" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G361" s="1"/>
+      <c r="G361" s="15"/>
     </row>
     <row r="362" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G362" s="1"/>
+      <c r="G362" s="15"/>
     </row>
     <row r="363" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G363" s="1"/>
+      <c r="G363" s="15"/>
     </row>
     <row r="364" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G364" s="1"/>
+      <c r="G364" s="15"/>
     </row>
     <row r="365" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G365" s="1"/>
+      <c r="G365" s="15"/>
     </row>
     <row r="366" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G366" s="1"/>
+      <c r="G366" s="15"/>
     </row>
     <row r="367" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G367" s="1"/>
+      <c r="G367" s="15"/>
     </row>
     <row r="368" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G368" s="1"/>
+      <c r="G368" s="15"/>
     </row>
     <row r="369" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G369" s="1"/>
+      <c r="G369" s="15"/>
     </row>
     <row r="370" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G370" s="1"/>
+      <c r="G370" s="15"/>
     </row>
     <row r="371" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G371" s="1"/>
+      <c r="G371" s="15"/>
     </row>
     <row r="372" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G372" s="1"/>
+      <c r="G372" s="15"/>
     </row>
     <row r="373" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G373" s="1"/>
+      <c r="G373" s="15"/>
     </row>
     <row r="374" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G374" s="1"/>
+      <c r="G374" s="15"/>
     </row>
     <row r="375" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G375" s="1"/>
+      <c r="G375" s="15"/>
     </row>
     <row r="376" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G376" s="1"/>
+      <c r="G376" s="15"/>
     </row>
     <row r="377" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G377" s="1"/>
+      <c r="G377" s="15"/>
     </row>
     <row r="378" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G378" s="1"/>
+      <c r="G378" s="15"/>
     </row>
     <row r="379" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G379" s="1"/>
+      <c r="G379" s="15"/>
     </row>
     <row r="380" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G380" s="1"/>
+      <c r="G380" s="15"/>
     </row>
     <row r="381" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G381" s="1"/>
+      <c r="G381" s="15"/>
     </row>
     <row r="382" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G382" s="1"/>
+      <c r="G382" s="15"/>
     </row>
     <row r="383" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G383" s="1"/>
+      <c r="G383" s="15"/>
     </row>
     <row r="384" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G384" s="1"/>
+      <c r="G384" s="15"/>
     </row>
     <row r="385" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G385" s="1"/>
+      <c r="G385" s="15"/>
     </row>
     <row r="386" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G386" s="1"/>
+      <c r="G386" s="15"/>
     </row>
     <row r="387" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G387" s="1"/>
+      <c r="G387" s="15"/>
     </row>
     <row r="388" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G388" s="1"/>
+      <c r="G388" s="15"/>
     </row>
     <row r="389" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G389" s="1"/>
+      <c r="G389" s="15"/>
     </row>
     <row r="390" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G390" s="1"/>
+      <c r="G390" s="15"/>
     </row>
     <row r="391" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G391" s="1"/>
+      <c r="G391" s="15"/>
     </row>
     <row r="392" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G392" s="1"/>
+      <c r="G392" s="15"/>
     </row>
     <row r="393" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G393" s="1"/>
+      <c r="G393" s="15"/>
     </row>
     <row r="394" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G394" s="1"/>
+      <c r="G394" s="15"/>
     </row>
     <row r="395" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G395" s="1"/>
+      <c r="G395" s="15"/>
     </row>
     <row r="396" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G396" s="1"/>
+      <c r="G396" s="15"/>
     </row>
     <row r="397" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G397" s="1"/>
+      <c r="G397" s="15"/>
     </row>
     <row r="398" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G398" s="1"/>
+      <c r="G398" s="15"/>
     </row>
     <row r="399" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G399" s="1"/>
+      <c r="G399" s="15"/>
     </row>
     <row r="400" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G400" s="1"/>
+      <c r="G400" s="15"/>
     </row>
     <row r="401" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G401" s="1"/>
+      <c r="G401" s="15"/>
     </row>
     <row r="402" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G402" s="1"/>
+      <c r="G402" s="15"/>
     </row>
     <row r="403" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G403" s="1"/>
+      <c r="G403" s="15"/>
     </row>
     <row r="404" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G404" s="1"/>
+      <c r="G404" s="15"/>
     </row>
     <row r="405" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G405" s="1"/>
+      <c r="G405" s="15"/>
     </row>
     <row r="406" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G406" s="1"/>
+      <c r="G406" s="15"/>
     </row>
     <row r="407" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G407" s="1"/>
+      <c r="G407" s="15"/>
     </row>
     <row r="408" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G408" s="1"/>
+      <c r="G408" s="15"/>
     </row>
     <row r="409" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G409" s="1"/>
+      <c r="G409" s="15"/>
     </row>
     <row r="410" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G410" s="1"/>
+      <c r="G410" s="15"/>
     </row>
     <row r="411" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G411" s="1"/>
+      <c r="G411" s="15"/>
     </row>
     <row r="412" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G412" s="1"/>
+      <c r="G412" s="15"/>
     </row>
     <row r="413" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G413" s="1"/>
+      <c r="G413" s="15"/>
     </row>
     <row r="414" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G414" s="1"/>
+      <c r="G414" s="15"/>
     </row>
     <row r="415" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G415" s="1"/>
+      <c r="G415" s="15"/>
     </row>
     <row r="416" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G416" s="1"/>
+      <c r="G416" s="15"/>
     </row>
     <row r="417" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G417" s="1"/>
+      <c r="G417" s="15"/>
     </row>
     <row r="418" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G418" s="1"/>
+      <c r="G418" s="15"/>
     </row>
     <row r="419" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G419" s="1"/>
+      <c r="G419" s="15"/>
     </row>
     <row r="420" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G420" s="1"/>
+      <c r="G420" s="15"/>
     </row>
     <row r="421" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G421" s="1"/>
+      <c r="G421" s="15"/>
     </row>
     <row r="422" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G422" s="1"/>
+      <c r="G422" s="15"/>
     </row>
     <row r="423" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G423" s="1"/>
+      <c r="G423" s="15"/>
     </row>
     <row r="424" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G424" s="1"/>
+      <c r="G424" s="15"/>
     </row>
     <row r="425" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G425" s="1"/>
+      <c r="G425" s="15"/>
     </row>
     <row r="426" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G426" s="1"/>
+      <c r="G426" s="15"/>
     </row>
     <row r="427" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G427" s="1"/>
+      <c r="G427" s="15"/>
     </row>
     <row r="428" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G428" s="1"/>
+      <c r="G428" s="15"/>
     </row>
     <row r="429" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G429" s="1"/>
+      <c r="G429" s="15"/>
     </row>
     <row r="430" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G430" s="1"/>
+      <c r="G430" s="15"/>
     </row>
     <row r="431" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G431" s="1"/>
+      <c r="G431" s="15"/>
     </row>
     <row r="432" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G432" s="1"/>
+      <c r="G432" s="15"/>
     </row>
     <row r="433" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G433" s="1"/>
+      <c r="G433" s="15"/>
     </row>
     <row r="434" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G434" s="1"/>
+      <c r="G434" s="15"/>
     </row>
     <row r="435" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G435" s="1"/>
+      <c r="G435" s="15"/>
     </row>
     <row r="436" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G436" s="1"/>
+      <c r="G436" s="15"/>
     </row>
     <row r="437" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G437" s="1"/>
+      <c r="G437" s="15"/>
     </row>
     <row r="438" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G438" s="1"/>
+      <c r="G438" s="15"/>
     </row>
     <row r="439" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G439" s="1"/>
+      <c r="G439" s="15"/>
     </row>
     <row r="440" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G440" s="1"/>
+      <c r="G440" s="15"/>
     </row>
     <row r="441" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G441" s="1"/>
+      <c r="G441" s="15"/>
     </row>
     <row r="442" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G442" s="1"/>
+      <c r="G442" s="15"/>
     </row>
     <row r="443" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G443" s="1"/>
+      <c r="G443" s="15"/>
     </row>
     <row r="444" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G444" s="1"/>
+      <c r="G444" s="15"/>
     </row>
     <row r="445" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G445" s="1"/>
+      <c r="G445" s="15"/>
     </row>
     <row r="446" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G446" s="1"/>
+      <c r="G446" s="15"/>
     </row>
     <row r="447" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G447" s="1"/>
+      <c r="G447" s="15"/>
     </row>
     <row r="448" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G448" s="1"/>
+      <c r="G448" s="15"/>
     </row>
     <row r="449" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G449" s="1"/>
+      <c r="G449" s="15"/>
     </row>
     <row r="450" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G450" s="1"/>
+      <c r="G450" s="15"/>
     </row>
     <row r="451" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G451" s="1"/>
+      <c r="G451" s="15"/>
     </row>
     <row r="452" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G452" s="1"/>
+      <c r="G452" s="15"/>
     </row>
     <row r="453" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G453" s="1"/>
+      <c r="G453" s="15"/>
     </row>
     <row r="454" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G454" s="1"/>
+      <c r="G454" s="15"/>
     </row>
     <row r="455" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G455" s="1"/>
+      <c r="G455" s="15"/>
     </row>
     <row r="456" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G456" s="1"/>
+      <c r="G456" s="15"/>
     </row>
     <row r="457" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G457" s="1"/>
+      <c r="G457" s="15"/>
     </row>
     <row r="458" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G458" s="1"/>
+      <c r="G458" s="15"/>
     </row>
     <row r="459" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G459" s="1"/>
+      <c r="G459" s="15"/>
     </row>
     <row r="460" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G460" s="1"/>
+      <c r="G460" s="15"/>
     </row>
     <row r="461" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G461" s="1"/>
+      <c r="G461" s="15"/>
     </row>
     <row r="462" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G462" s="1"/>
+      <c r="G462" s="15"/>
     </row>
     <row r="463" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G463" s="1"/>
+      <c r="G463" s="15"/>
     </row>
     <row r="464" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G464" s="1"/>
+      <c r="G464" s="15"/>
     </row>
     <row r="465" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G465" s="1"/>
+      <c r="G465" s="15"/>
     </row>
     <row r="466" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G466" s="1"/>
+      <c r="G466" s="15"/>
     </row>
     <row r="467" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G467" s="1"/>
+      <c r="G467" s="15"/>
     </row>
     <row r="468" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G468" s="1"/>
+      <c r="G468" s="15"/>
     </row>
     <row r="469" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G469" s="1"/>
+      <c r="G469" s="15"/>
     </row>
     <row r="470" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G470" s="1"/>
+      <c r="G470" s="15"/>
     </row>
     <row r="471" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G471" s="1"/>
+      <c r="G471" s="15"/>
     </row>
     <row r="472" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G472" s="1"/>
+      <c r="G472" s="15"/>
     </row>
     <row r="473" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G473" s="1"/>
+      <c r="G473" s="15"/>
     </row>
     <row r="474" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G474" s="1"/>
+      <c r="G474" s="15"/>
     </row>
     <row r="475" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G475" s="1"/>
+      <c r="G475" s="15"/>
     </row>
     <row r="476" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G476" s="1"/>
+      <c r="G476" s="15"/>
     </row>
     <row r="477" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G477" s="1"/>
+      <c r="G477" s="15"/>
     </row>
     <row r="478" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G478" s="1"/>
+      <c r="G478" s="15"/>
     </row>
     <row r="479" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G479" s="1"/>
+      <c r="G479" s="15"/>
     </row>
     <row r="480" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G480" s="1"/>
+      <c r="G480" s="15"/>
     </row>
     <row r="481" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G481" s="1"/>
+      <c r="G481" s="15"/>
     </row>
     <row r="482" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G482" s="1"/>
+      <c r="G482" s="15"/>
     </row>
     <row r="483" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G483" s="1"/>
+      <c r="G483" s="15"/>
     </row>
     <row r="484" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G484" s="1"/>
+      <c r="G484" s="15"/>
     </row>
     <row r="485" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G485" s="1"/>
+      <c r="G485" s="15"/>
     </row>
     <row r="486" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G486" s="1"/>
+      <c r="G486" s="15"/>
     </row>
     <row r="487" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G487" s="1"/>
+      <c r="G487" s="15"/>
     </row>
     <row r="488" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G488" s="1"/>
+      <c r="G488" s="15"/>
     </row>
     <row r="489" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G489" s="1"/>
+      <c r="G489" s="15"/>
     </row>
     <row r="490" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G490" s="1"/>
+      <c r="G490" s="15"/>
     </row>
     <row r="491" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G491" s="1"/>
+      <c r="G491" s="15"/>
     </row>
     <row r="492" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G492" s="1"/>
+      <c r="G492" s="15"/>
     </row>
     <row r="493" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G493" s="1"/>
+      <c r="G493" s="15"/>
     </row>
     <row r="494" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G494" s="1"/>
+      <c r="G494" s="15"/>
     </row>
     <row r="495" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G495" s="1"/>
+      <c r="G495" s="15"/>
     </row>
     <row r="496" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G496" s="1"/>
+      <c r="G496" s="15"/>
     </row>
     <row r="497" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G497" s="1"/>
+      <c r="G497" s="15"/>
     </row>
     <row r="498" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G498" s="1"/>
+      <c r="G498" s="15"/>
     </row>
     <row r="499" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G499" s="1"/>
+      <c r="G499" s="15"/>
     </row>
     <row r="500" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G500" s="1"/>
+      <c r="G500" s="15"/>
     </row>
     <row r="501" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G501" s="1"/>
+      <c r="G501" s="15"/>
     </row>
     <row r="502" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G502" s="1"/>
+      <c r="G502" s="15"/>
     </row>
     <row r="503" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G503" s="1"/>
+      <c r="G503" s="15"/>
     </row>
     <row r="504" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G504" s="1"/>
+      <c r="G504" s="15"/>
     </row>
     <row r="505" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G505" s="1"/>
+      <c r="G505" s="15"/>
     </row>
     <row r="506" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G506" s="1"/>
+      <c r="G506" s="15"/>
     </row>
     <row r="507" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G507" s="1"/>
+      <c r="G507" s="15"/>
     </row>
     <row r="508" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G508" s="1"/>
+      <c r="G508" s="15"/>
     </row>
     <row r="509" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G509" s="1"/>
+      <c r="G509" s="15"/>
     </row>
     <row r="510" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G510" s="1"/>
+      <c r="G510" s="15"/>
     </row>
     <row r="511" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G511" s="1"/>
+      <c r="G511" s="15"/>
     </row>
     <row r="512" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G512" s="1"/>
+      <c r="G512" s="15"/>
     </row>
     <row r="513" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G513" s="1"/>
+      <c r="G513" s="15"/>
     </row>
     <row r="514" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G514" s="1"/>
+      <c r="G514" s="15"/>
     </row>
     <row r="515" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G515" s="1"/>
+      <c r="G515" s="15"/>
     </row>
     <row r="516" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G516" s="1"/>
+      <c r="G516" s="15"/>
     </row>
     <row r="517" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G517" s="1"/>
+      <c r="G517" s="15"/>
     </row>
     <row r="518" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G518" s="1"/>
+      <c r="G518" s="15"/>
     </row>
     <row r="519" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G519" s="1"/>
+      <c r="G519" s="15"/>
     </row>
     <row r="520" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G520" s="1"/>
+      <c r="G520" s="15"/>
     </row>
     <row r="521" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G521" s="1"/>
+      <c r="G521" s="15"/>
     </row>
     <row r="522" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G522" s="1"/>
+      <c r="G522" s="15"/>
     </row>
     <row r="523" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G523" s="1"/>
+      <c r="G523" s="15"/>
     </row>
     <row r="524" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G524" s="1"/>
+      <c r="G524" s="15"/>
     </row>
     <row r="525" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G525" s="1"/>
+      <c r="G525" s="15"/>
     </row>
     <row r="526" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G526" s="1"/>
+      <c r="G526" s="15"/>
     </row>
     <row r="527" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G527" s="1"/>
+      <c r="G527" s="15"/>
     </row>
     <row r="528" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G528" s="1"/>
+      <c r="G528" s="15"/>
     </row>
     <row r="529" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G529" s="1"/>
+      <c r="G529" s="15"/>
     </row>
     <row r="530" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G530" s="1"/>
+      <c r="G530" s="15"/>
     </row>
     <row r="531" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G531" s="1"/>
+      <c r="G531" s="15"/>
     </row>
     <row r="532" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G532" s="1"/>
+      <c r="G532" s="15"/>
     </row>
     <row r="533" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G533" s="1"/>
+      <c r="G533" s="15"/>
     </row>
     <row r="534" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G534" s="1"/>
+      <c r="G534" s="15"/>
     </row>
     <row r="535" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G535" s="1"/>
+      <c r="G535" s="15"/>
     </row>
     <row r="536" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G536" s="1"/>
+      <c r="G536" s="15"/>
     </row>
     <row r="537" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G537" s="1"/>
+      <c r="G537" s="15"/>
     </row>
     <row r="538" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G538" s="1"/>
+      <c r="G538" s="15"/>
     </row>
     <row r="539" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G539" s="1"/>
+      <c r="G539" s="15"/>
     </row>
     <row r="540" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G540" s="1"/>
+      <c r="G540" s="15"/>
     </row>
     <row r="541" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G541" s="1"/>
+      <c r="G541" s="15"/>
     </row>
     <row r="542" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G542" s="1"/>
+      <c r="G542" s="15"/>
     </row>
     <row r="543" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G543" s="1"/>
+      <c r="G543" s="15"/>
     </row>
     <row r="544" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G544" s="1"/>
+      <c r="G544" s="15"/>
     </row>
     <row r="545" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G545" s="1"/>
+      <c r="G545" s="15"/>
     </row>
     <row r="546" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G546" s="1"/>
+      <c r="G546" s="15"/>
     </row>
     <row r="547" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G547" s="1"/>
+      <c r="G547" s="15"/>
     </row>
     <row r="548" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G548" s="1"/>
+      <c r="G548" s="15"/>
     </row>
     <row r="549" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G549" s="1"/>
+      <c r="G549" s="15"/>
     </row>
     <row r="550" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G550" s="1"/>
+      <c r="G550" s="15"/>
     </row>
     <row r="551" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G551" s="1"/>
+      <c r="G551" s="15"/>
     </row>
     <row r="552" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G552" s="1"/>
+      <c r="G552" s="15"/>
     </row>
     <row r="553" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G553" s="1"/>
+      <c r="G553" s="15"/>
     </row>
     <row r="554" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G554" s="1"/>
+      <c r="G554" s="15"/>
     </row>
     <row r="555" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G555" s="1"/>
+      <c r="G555" s="15"/>
     </row>
     <row r="556" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G556" s="1"/>
+      <c r="G556" s="15"/>
     </row>
     <row r="557" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G557" s="1"/>
+      <c r="G557" s="15"/>
     </row>
     <row r="558" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G558" s="1"/>
+      <c r="G558" s="15"/>
     </row>
     <row r="559" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G559" s="1"/>
+      <c r="G559" s="15"/>
     </row>
     <row r="560" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G560" s="1"/>
+      <c r="G560" s="15"/>
     </row>
     <row r="561" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G561" s="1"/>
+      <c r="G561" s="15"/>
     </row>
     <row r="562" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G562" s="1"/>
+      <c r="G562" s="15"/>
     </row>
     <row r="563" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G563" s="1"/>
+      <c r="G563" s="15"/>
     </row>
     <row r="564" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G564" s="1"/>
+      <c r="G564" s="15"/>
     </row>
     <row r="565" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G565" s="1"/>
+      <c r="G565" s="15"/>
     </row>
     <row r="566" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G566" s="1"/>
+      <c r="G566" s="15"/>
     </row>
     <row r="567" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G567" s="1"/>
+      <c r="G567" s="15"/>
     </row>
     <row r="568" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G568" s="1"/>
+      <c r="G568" s="15"/>
     </row>
     <row r="569" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G569" s="1"/>
+      <c r="G569" s="15"/>
     </row>
     <row r="570" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G570" s="1"/>
+      <c r="G570" s="15"/>
     </row>
     <row r="571" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G571" s="1"/>
+      <c r="G571" s="15"/>
     </row>
     <row r="572" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G572" s="1"/>
+      <c r="G572" s="15"/>
     </row>
     <row r="573" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G573" s="1"/>
+      <c r="G573" s="15"/>
     </row>
     <row r="574" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G574" s="1"/>
+      <c r="G574" s="15"/>
     </row>
     <row r="575" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G575" s="1"/>
+      <c r="G575" s="15"/>
     </row>
     <row r="576" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G576" s="1"/>
+      <c r="G576" s="15"/>
     </row>
     <row r="577" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G577" s="1"/>
+      <c r="G577" s="15"/>
     </row>
     <row r="578" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G578" s="1"/>
+      <c r="G578" s="15"/>
     </row>
     <row r="579" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G579" s="1"/>
+      <c r="G579" s="15"/>
     </row>
     <row r="580" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G580" s="1"/>
+      <c r="G580" s="15"/>
     </row>
     <row r="581" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G581" s="1"/>
+      <c r="G581" s="15"/>
     </row>
     <row r="582" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G582" s="1"/>
+      <c r="G582" s="15"/>
     </row>
     <row r="583" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G583" s="1"/>
+      <c r="G583" s="15"/>
     </row>
     <row r="584" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G584" s="1"/>
+      <c r="G584" s="15"/>
     </row>
     <row r="585" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G585" s="1"/>
+      <c r="G585" s="15"/>
     </row>
     <row r="586" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G586" s="1"/>
+      <c r="G586" s="15"/>
     </row>
     <row r="587" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G587" s="1"/>
+      <c r="G587" s="15"/>
     </row>
     <row r="588" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G588" s="1"/>
+      <c r="G588" s="15"/>
     </row>
     <row r="589" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G589" s="1"/>
+      <c r="G589" s="15"/>
     </row>
     <row r="590" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G590" s="1"/>
+      <c r="G590" s="15"/>
     </row>
     <row r="591" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G591" s="1"/>
+      <c r="G591" s="15"/>
     </row>
     <row r="592" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G592" s="1"/>
+      <c r="G592" s="15"/>
     </row>
     <row r="593" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G593" s="1"/>
+      <c r="G593" s="15"/>
     </row>
     <row r="594" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G594" s="1"/>
+      <c r="G594" s="15"/>
     </row>
     <row r="595" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G595" s="1"/>
+      <c r="G595" s="15"/>
     </row>
     <row r="596" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G596" s="1"/>
+      <c r="G596" s="15"/>
     </row>
     <row r="597" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G597" s="1"/>
+      <c r="G597" s="15"/>
     </row>
     <row r="598" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G598" s="1"/>
+      <c r="G598" s="15"/>
     </row>
     <row r="599" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G599" s="1"/>
+      <c r="G599" s="15"/>
     </row>
     <row r="600" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G600" s="1"/>
+      <c r="G600" s="15"/>
     </row>
     <row r="601" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G601" s="1"/>
+      <c r="G601" s="15"/>
     </row>
     <row r="602" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G602" s="1"/>
+      <c r="G602" s="15"/>
     </row>
     <row r="603" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G603" s="1"/>
+      <c r="G603" s="15"/>
     </row>
     <row r="604" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G604" s="1"/>
+      <c r="G604" s="15"/>
     </row>
     <row r="605" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G605" s="1"/>
+      <c r="G605" s="15"/>
     </row>
     <row r="606" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G606" s="1"/>
+      <c r="G606" s="15"/>
     </row>
     <row r="607" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G607" s="1"/>
+      <c r="G607" s="15"/>
     </row>
     <row r="608" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G608" s="1"/>
+      <c r="G608" s="15"/>
     </row>
     <row r="609" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G609" s="1"/>
+      <c r="G609" s="15"/>
     </row>
     <row r="610" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G610" s="1"/>
+      <c r="G610" s="15"/>
     </row>
     <row r="611" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G611" s="1"/>
+      <c r="G611" s="15"/>
     </row>
     <row r="612" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G612" s="1"/>
+      <c r="G612" s="15"/>
     </row>
     <row r="613" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G613" s="1"/>
+      <c r="G613" s="15"/>
     </row>
     <row r="614" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G614" s="1"/>
+      <c r="G614" s="15"/>
     </row>
     <row r="615" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G615" s="1"/>
+      <c r="G615" s="15"/>
     </row>
     <row r="616" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G616" s="1"/>
+      <c r="G616" s="15"/>
     </row>
     <row r="617" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G617" s="1"/>
+      <c r="G617" s="15"/>
     </row>
     <row r="618" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G618" s="1"/>
+      <c r="G618" s="15"/>
     </row>
     <row r="619" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G619" s="1"/>
+      <c r="G619" s="15"/>
     </row>
     <row r="620" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G620" s="1"/>
+      <c r="G620" s="15"/>
     </row>
     <row r="621" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G621" s="1"/>
+      <c r="G621" s="15"/>
     </row>
     <row r="622" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G622" s="1"/>
+      <c r="G622" s="15"/>
     </row>
     <row r="623" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G623" s="1"/>
+      <c r="G623" s="15"/>
     </row>
     <row r="624" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G624" s="1"/>
+      <c r="G624" s="15"/>
     </row>
     <row r="625" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G625" s="1"/>
+      <c r="G625" s="15"/>
     </row>
     <row r="626" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G626" s="1"/>
+      <c r="G626" s="15"/>
     </row>
     <row r="627" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G627" s="1"/>
+      <c r="G627" s="15"/>
     </row>
     <row r="628" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G628" s="1"/>
+      <c r="G628" s="15"/>
     </row>
     <row r="629" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G629" s="1"/>
+      <c r="G629" s="15"/>
     </row>
     <row r="630" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G630" s="1"/>
+      <c r="G630" s="15"/>
     </row>
     <row r="631" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G631" s="1"/>
+      <c r="G631" s="15"/>
     </row>
     <row r="632" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G632" s="1"/>
+      <c r="G632" s="15"/>
     </row>
     <row r="633" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G633" s="1"/>
+      <c r="G633" s="15"/>
     </row>
     <row r="634" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G634" s="1"/>
+      <c r="G634" s="15"/>
     </row>
     <row r="635" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G635" s="1"/>
+      <c r="G635" s="15"/>
     </row>
     <row r="636" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G636" s="1"/>
+      <c r="G636" s="15"/>
     </row>
     <row r="637" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G637" s="1"/>
+      <c r="G637" s="15"/>
     </row>
     <row r="638" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G638" s="1"/>
+      <c r="G638" s="15"/>
     </row>
     <row r="639" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G639" s="1"/>
+      <c r="G639" s="15"/>
     </row>
     <row r="640" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G640" s="1"/>
+      <c r="G640" s="15"/>
     </row>
     <row r="641" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G641" s="1"/>
+      <c r="G641" s="15"/>
     </row>
     <row r="642" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G642" s="1"/>
+      <c r="G642" s="15"/>
     </row>
     <row r="643" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G643" s="1"/>
+      <c r="G643" s="15"/>
     </row>
     <row r="644" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G644" s="1"/>
+      <c r="G644" s="15"/>
     </row>
     <row r="645" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G645" s="1"/>
+      <c r="G645" s="15"/>
     </row>
     <row r="646" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G646" s="1"/>
+      <c r="G646" s="15"/>
     </row>
     <row r="647" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G647" s="1"/>
+      <c r="G647" s="15"/>
     </row>
     <row r="648" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G648" s="1"/>
+      <c r="G648" s="15"/>
     </row>
     <row r="649" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G649" s="1"/>
+      <c r="G649" s="15"/>
     </row>
     <row r="650" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G650" s="1"/>
+      <c r="G650" s="15"/>
     </row>
     <row r="651" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G651" s="1"/>
+      <c r="G651" s="15"/>
     </row>
     <row r="652" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G652" s="1"/>
+      <c r="G652" s="15"/>
     </row>
     <row r="653" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G653" s="1"/>
+      <c r="G653" s="15"/>
     </row>
     <row r="654" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G654" s="1"/>
+      <c r="G654" s="15"/>
     </row>
     <row r="655" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G655" s="1"/>
+      <c r="G655" s="15"/>
     </row>
     <row r="656" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G656" s="1"/>
+      <c r="G656" s="15"/>
     </row>
     <row r="657" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G657" s="1"/>
+      <c r="G657" s="15"/>
     </row>
     <row r="658" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G658" s="1"/>
+      <c r="G658" s="15"/>
     </row>
     <row r="659" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G659" s="1"/>
+      <c r="G659" s="15"/>
     </row>
     <row r="660" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G660" s="1"/>
+      <c r="G660" s="15"/>
     </row>
     <row r="661" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G661" s="1"/>
+      <c r="G661" s="15"/>
     </row>
     <row r="662" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G662" s="1"/>
+      <c r="G662" s="15"/>
     </row>
     <row r="663" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G663" s="1"/>
+      <c r="G663" s="15"/>
     </row>
     <row r="664" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G664" s="1"/>
+      <c r="G664" s="15"/>
     </row>
     <row r="665" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G665" s="1"/>
+      <c r="G665" s="15"/>
     </row>
     <row r="666" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G666" s="1"/>
+      <c r="G666" s="15"/>
     </row>
     <row r="667" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G667" s="1"/>
+      <c r="G667" s="15"/>
     </row>
     <row r="668" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G668" s="1"/>
+      <c r="G668" s="15"/>
     </row>
     <row r="669" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G669" s="1"/>
+      <c r="G669" s="15"/>
     </row>
     <row r="670" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G670" s="1"/>
+      <c r="G670" s="15"/>
     </row>
     <row r="671" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G671" s="1"/>
+      <c r="G671" s="15"/>
     </row>
     <row r="672" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G672" s="1"/>
+      <c r="G672" s="15"/>
     </row>
     <row r="673" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G673" s="1"/>
+      <c r="G673" s="15"/>
     </row>
     <row r="674" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G674" s="1"/>
+      <c r="G674" s="15"/>
     </row>
     <row r="675" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G675" s="1"/>
+      <c r="G675" s="15"/>
     </row>
     <row r="676" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G676" s="1"/>
+      <c r="G676" s="15"/>
     </row>
     <row r="677" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G677" s="1"/>
+      <c r="G677" s="15"/>
     </row>
     <row r="678" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G678" s="1"/>
+      <c r="G678" s="15"/>
     </row>
     <row r="679" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G679" s="1"/>
+      <c r="G679" s="15"/>
     </row>
     <row r="680" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G680" s="1"/>
+      <c r="G680" s="15"/>
     </row>
     <row r="681" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G681" s="1"/>
+      <c r="G681" s="15"/>
     </row>
     <row r="682" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G682" s="1"/>
+      <c r="G682" s="15"/>
     </row>
     <row r="683" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G683" s="1"/>
+      <c r="G683" s="15"/>
     </row>
     <row r="684" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G684" s="1"/>
+      <c r="G684" s="15"/>
     </row>
     <row r="685" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G685" s="1"/>
+      <c r="G685" s="15"/>
     </row>
     <row r="686" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G686" s="1"/>
+      <c r="G686" s="15"/>
     </row>
     <row r="687" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G687" s="1"/>
+      <c r="G687" s="15"/>
     </row>
     <row r="688" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G688" s="1"/>
+      <c r="G688" s="15"/>
     </row>
     <row r="689" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G689" s="1"/>
+      <c r="G689" s="15"/>
     </row>
     <row r="690" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G690" s="1"/>
+      <c r="G690" s="15"/>
     </row>
     <row r="691" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G691" s="1"/>
+      <c r="G691" s="15"/>
     </row>
     <row r="692" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G692" s="1"/>
+      <c r="G692" s="15"/>
     </row>
     <row r="693" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G693" s="1"/>
+      <c r="G693" s="15"/>
     </row>
     <row r="694" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G694" s="1"/>
+      <c r="G694" s="15"/>
     </row>
     <row r="695" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G695" s="1"/>
+      <c r="G695" s="15"/>
     </row>
     <row r="696" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G696" s="1"/>
+      <c r="G696" s="15"/>
     </row>
     <row r="697" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G697" s="1"/>
+      <c r="G697" s="15"/>
     </row>
     <row r="698" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G698" s="1"/>
+      <c r="G698" s="15"/>
     </row>
     <row r="699" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G699" s="1"/>
+      <c r="G699" s="15"/>
     </row>
     <row r="700" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G700" s="1"/>
+      <c r="G700" s="15"/>
     </row>
     <row r="701" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G701" s="1"/>
+      <c r="G701" s="15"/>
     </row>
     <row r="702" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G702" s="1"/>
+      <c r="G702" s="15"/>
     </row>
     <row r="703" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G703" s="1"/>
+      <c r="G703" s="15"/>
     </row>
     <row r="704" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G704" s="1"/>
+      <c r="G704" s="15"/>
     </row>
     <row r="705" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G705" s="1"/>
+      <c r="G705" s="15"/>
     </row>
     <row r="706" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G706" s="1"/>
+      <c r="G706" s="15"/>
     </row>
     <row r="707" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G707" s="1"/>
+      <c r="G707" s="15"/>
     </row>
     <row r="708" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G708" s="1"/>
+      <c r="G708" s="15"/>
     </row>
     <row r="709" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G709" s="1"/>
+      <c r="G709" s="15"/>
     </row>
     <row r="710" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G710" s="1"/>
+      <c r="G710" s="15"/>
     </row>
     <row r="711" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G711" s="1"/>
+      <c r="G711" s="15"/>
     </row>
     <row r="712" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G712" s="1"/>
+      <c r="G712" s="15"/>
     </row>
     <row r="713" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G713" s="1"/>
+      <c r="G713" s="15"/>
     </row>
     <row r="714" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G714" s="1"/>
+      <c r="G714" s="15"/>
     </row>
     <row r="715" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G715" s="1"/>
+      <c r="G715" s="15"/>
     </row>
     <row r="716" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G716" s="1"/>
+      <c r="G716" s="15"/>
     </row>
     <row r="717" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G717" s="1"/>
+      <c r="G717" s="15"/>
     </row>
     <row r="718" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G718" s="1"/>
+      <c r="G718" s="15"/>
     </row>
     <row r="719" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G719" s="1"/>
+      <c r="G719" s="15"/>
     </row>
     <row r="720" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G720" s="1"/>
+      <c r="G720" s="15"/>
     </row>
     <row r="721" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G721" s="1"/>
+      <c r="G721" s="15"/>
     </row>
     <row r="722" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G722" s="1"/>
+      <c r="G722" s="15"/>
     </row>
     <row r="723" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G723" s="1"/>
+      <c r="G723" s="15"/>
     </row>
     <row r="724" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G724" s="1"/>
+      <c r="G724" s="15"/>
     </row>
     <row r="725" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G725" s="1"/>
+      <c r="G725" s="15"/>
     </row>
     <row r="726" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G726" s="1"/>
+      <c r="G726" s="15"/>
     </row>
     <row r="727" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G727" s="1"/>
+      <c r="G727" s="15"/>
     </row>
     <row r="728" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G728" s="1"/>
+      <c r="G728" s="15"/>
     </row>
     <row r="729" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G729" s="1"/>
+      <c r="G729" s="15"/>
     </row>
     <row r="730" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G730" s="1"/>
+      <c r="G730" s="15"/>
     </row>
     <row r="731" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G731" s="1"/>
+      <c r="G731" s="15"/>
     </row>
     <row r="732" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G732" s="1"/>
+      <c r="G732" s="15"/>
     </row>
     <row r="733" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G733" s="1"/>
+      <c r="G733" s="15"/>
     </row>
     <row r="734" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G734" s="1"/>
+      <c r="G734" s="15"/>
     </row>
     <row r="735" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G735" s="1"/>
+      <c r="G735" s="15"/>
     </row>
     <row r="736" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G736" s="1"/>
+      <c r="G736" s="15"/>
     </row>
     <row r="737" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G737" s="1"/>
+      <c r="G737" s="15"/>
     </row>
     <row r="738" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G738" s="1"/>
+      <c r="G738" s="15"/>
     </row>
     <row r="739" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G739" s="1"/>
+      <c r="G739" s="15"/>
     </row>
     <row r="740" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G740" s="1"/>
+      <c r="G740" s="15"/>
     </row>
     <row r="741" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G741" s="1"/>
+      <c r="G741" s="15"/>
     </row>
     <row r="742" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G742" s="1"/>
+      <c r="G742" s="15"/>
     </row>
     <row r="743" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G743" s="1"/>
+      <c r="G743" s="15"/>
     </row>
     <row r="744" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G744" s="1"/>
+      <c r="G744" s="15"/>
     </row>
     <row r="745" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G745" s="1"/>
+      <c r="G745" s="15"/>
     </row>
     <row r="746" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G746" s="1"/>
+      <c r="G746" s="15"/>
     </row>
     <row r="747" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G747" s="1"/>
+      <c r="G747" s="15"/>
     </row>
     <row r="748" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G748" s="1"/>
+      <c r="G748" s="15"/>
     </row>
     <row r="749" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G749" s="1"/>
+      <c r="G749" s="15"/>
     </row>
     <row r="750" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G750" s="1"/>
+      <c r="G750" s="15"/>
     </row>
     <row r="751" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G751" s="1"/>
+      <c r="G751" s="15"/>
     </row>
     <row r="752" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G752" s="1"/>
+      <c r="G752" s="15"/>
     </row>
     <row r="753" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G753" s="1"/>
+      <c r="G753" s="15"/>
     </row>
     <row r="754" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G754" s="1"/>
+      <c r="G754" s="15"/>
     </row>
     <row r="755" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G755" s="1"/>
+      <c r="G755" s="15"/>
     </row>
     <row r="756" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G756" s="1"/>
+      <c r="G756" s="15"/>
     </row>
     <row r="757" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G757" s="1"/>
+      <c r="G757" s="15"/>
     </row>
     <row r="758" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G758" s="1"/>
+      <c r="G758" s="15"/>
     </row>
     <row r="759" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G759" s="1"/>
+      <c r="G759" s="15"/>
     </row>
     <row r="760" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G760" s="1"/>
+      <c r="G760" s="15"/>
     </row>
     <row r="761" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G761" s="1"/>
+      <c r="G761" s="15"/>
     </row>
     <row r="762" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G762" s="1"/>
+      <c r="G762" s="15"/>
     </row>
     <row r="763" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G763" s="1"/>
+      <c r="G763" s="15"/>
     </row>
     <row r="764" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G764" s="1"/>
+      <c r="G764" s="15"/>
     </row>
     <row r="765" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G765" s="1"/>
+      <c r="G765" s="15"/>
     </row>
     <row r="766" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G766" s="1"/>
+      <c r="G766" s="15"/>
     </row>
     <row r="767" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G767" s="1"/>
+      <c r="G767" s="15"/>
     </row>
     <row r="768" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G768" s="1"/>
+      <c r="G768" s="15"/>
     </row>
     <row r="769" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G769" s="1"/>
+      <c r="G769" s="15"/>
     </row>
     <row r="770" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G770" s="1"/>
+      <c r="G770" s="15"/>
     </row>
     <row r="771" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G771" s="1"/>
+      <c r="G771" s="15"/>
     </row>
     <row r="772" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G772" s="1"/>
+      <c r="G772" s="15"/>
     </row>
     <row r="773" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G773" s="1"/>
+      <c r="G773" s="15"/>
     </row>
     <row r="774" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G774" s="1"/>
+      <c r="G774" s="15"/>
     </row>
     <row r="775" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G775" s="1"/>
+      <c r="G775" s="15"/>
     </row>
     <row r="776" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G776" s="1"/>
+      <c r="G776" s="15"/>
     </row>
     <row r="777" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G777" s="1"/>
+      <c r="G777" s="15"/>
     </row>
     <row r="778" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G778" s="1"/>
+      <c r="G778" s="15"/>
     </row>
     <row r="779" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G779" s="1"/>
+      <c r="G779" s="15"/>
     </row>
     <row r="780" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G780" s="1"/>
+      <c r="G780" s="15"/>
     </row>
     <row r="781" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G781" s="1"/>
+      <c r="G781" s="15"/>
     </row>
     <row r="782" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G782" s="1"/>
+      <c r="G782" s="15"/>
     </row>
     <row r="783" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G783" s="1"/>
+      <c r="G783" s="15"/>
     </row>
     <row r="784" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G784" s="1"/>
+      <c r="G784" s="15"/>
     </row>
     <row r="785" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G785" s="1"/>
+      <c r="G785" s="15"/>
     </row>
     <row r="786" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G786" s="1"/>
+      <c r="G786" s="15"/>
     </row>
     <row r="787" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G787" s="1"/>
+      <c r="G787" s="15"/>
     </row>
     <row r="788" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G788" s="1"/>
+      <c r="G788" s="15"/>
     </row>
     <row r="789" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G789" s="1"/>
+      <c r="G789" s="15"/>
     </row>
     <row r="790" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G790" s="1"/>
+      <c r="G790" s="15"/>
     </row>
     <row r="791" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G791" s="1"/>
+      <c r="G791" s="15"/>
     </row>
     <row r="792" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G792" s="1"/>
+      <c r="G792" s="15"/>
     </row>
     <row r="793" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G793" s="1"/>
+      <c r="G793" s="15"/>
     </row>
     <row r="794" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G794" s="1"/>
+      <c r="G794" s="15"/>
     </row>
     <row r="795" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G795" s="1"/>
+      <c r="G795" s="15"/>
     </row>
     <row r="796" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G796" s="1"/>
+      <c r="G796" s="15"/>
     </row>
     <row r="797" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G797" s="1"/>
+      <c r="G797" s="15"/>
     </row>
     <row r="798" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G798" s="1"/>
+      <c r="G798" s="15"/>
     </row>
     <row r="799" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G799" s="1"/>
+      <c r="G799" s="15"/>
     </row>
     <row r="800" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G800" s="1"/>
+      <c r="G800" s="15"/>
     </row>
     <row r="801" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G801" s="1"/>
+      <c r="G801" s="15"/>
     </row>
     <row r="802" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G802" s="1"/>
+      <c r="G802" s="15"/>
     </row>
     <row r="803" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G803" s="1"/>
+      <c r="G803" s="15"/>
     </row>
     <row r="804" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G804" s="1"/>
+      <c r="G804" s="15"/>
     </row>
     <row r="805" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G805" s="1"/>
+      <c r="G805" s="15"/>
     </row>
     <row r="806" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G806" s="1"/>
+      <c r="G806" s="15"/>
     </row>
     <row r="807" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G807" s="1"/>
+      <c r="G807" s="15"/>
     </row>
     <row r="808" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G808" s="1"/>
+      <c r="G808" s="15"/>
     </row>
     <row r="809" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G809" s="1"/>
+      <c r="G809" s="15"/>
     </row>
     <row r="810" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G810" s="1"/>
+      <c r="G810" s="15"/>
     </row>
     <row r="811" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G811" s="1"/>
+      <c r="G811" s="15"/>
     </row>
     <row r="812" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G812" s="1"/>
+      <c r="G812" s="15"/>
     </row>
     <row r="813" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G813" s="1"/>
+      <c r="G813" s="15"/>
     </row>
     <row r="814" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G814" s="1"/>
+      <c r="G814" s="15"/>
     </row>
     <row r="815" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G815" s="1"/>
+      <c r="G815" s="15"/>
     </row>
     <row r="816" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G816" s="1"/>
+      <c r="G816" s="15"/>
     </row>
     <row r="817" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G817" s="1"/>
+      <c r="G817" s="15"/>
     </row>
     <row r="818" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G818" s="1"/>
+      <c r="G818" s="15"/>
     </row>
     <row r="819" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G819" s="1"/>
+      <c r="G819" s="15"/>
     </row>
     <row r="820" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G820" s="1"/>
+      <c r="G820" s="15"/>
     </row>
     <row r="821" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G821" s="1"/>
+      <c r="G821" s="15"/>
     </row>
     <row r="822" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G822" s="1"/>
+      <c r="G822" s="15"/>
     </row>
     <row r="823" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G823" s="1"/>
+      <c r="G823" s="15"/>
     </row>
     <row r="824" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G824" s="1"/>
+      <c r="G824" s="15"/>
     </row>
     <row r="825" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G825" s="1"/>
+      <c r="G825" s="15"/>
     </row>
     <row r="826" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G826" s="1"/>
+      <c r="G826" s="15"/>
     </row>
     <row r="827" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G827" s="1"/>
+      <c r="G827" s="15"/>
     </row>
     <row r="828" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G828" s="1"/>
+      <c r="G828" s="15"/>
     </row>
     <row r="829" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G829" s="1"/>
+      <c r="G829" s="15"/>
     </row>
     <row r="830" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G830" s="1"/>
+      <c r="G830" s="15"/>
     </row>
     <row r="831" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G831" s="1"/>
+      <c r="G831" s="15"/>
     </row>
     <row r="832" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G832" s="1"/>
+      <c r="G832" s="15"/>
     </row>
     <row r="833" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G833" s="1"/>
+      <c r="G833" s="15"/>
     </row>
     <row r="834" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G834" s="1"/>
+      <c r="G834" s="15"/>
     </row>
     <row r="835" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G835" s="1"/>
+      <c r="G835" s="15"/>
     </row>
     <row r="836" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G836" s="1"/>
+      <c r="G836" s="15"/>
     </row>
     <row r="837" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G837" s="1"/>
+      <c r="G837" s="15"/>
     </row>
     <row r="838" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G838" s="1"/>
+      <c r="G838" s="15"/>
     </row>
     <row r="839" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G839" s="1"/>
+      <c r="G839" s="15"/>
     </row>
     <row r="840" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G840" s="1"/>
+      <c r="G840" s="15"/>
     </row>
     <row r="841" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G841" s="1"/>
+      <c r="G841" s="15"/>
     </row>
     <row r="842" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G842" s="1"/>
+      <c r="G842" s="15"/>
     </row>
     <row r="843" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G843" s="1"/>
+      <c r="G843" s="15"/>
     </row>
     <row r="844" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G844" s="1"/>
+      <c r="G844" s="15"/>
     </row>
     <row r="845" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G845" s="1"/>
+      <c r="G845" s="15"/>
     </row>
     <row r="846" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G846" s="1"/>
+      <c r="G846" s="15"/>
     </row>
     <row r="847" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G847" s="1"/>
+      <c r="G847" s="15"/>
     </row>
     <row r="848" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G848" s="1"/>
+      <c r="G848" s="15"/>
     </row>
     <row r="849" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G849" s="1"/>
+      <c r="G849" s="15"/>
     </row>
     <row r="850" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G850" s="1"/>
+      <c r="G850" s="15"/>
     </row>
     <row r="851" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G851" s="1"/>
+      <c r="G851" s="15"/>
     </row>
     <row r="852" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G852" s="1"/>
+      <c r="G852" s="15"/>
     </row>
     <row r="853" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G853" s="1"/>
+      <c r="G853" s="15"/>
     </row>
     <row r="854" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G854" s="1"/>
+      <c r="G854" s="15"/>
     </row>
     <row r="855" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G855" s="1"/>
+      <c r="G855" s="15"/>
     </row>
     <row r="856" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G856" s="1"/>
+      <c r="G856" s="15"/>
     </row>
     <row r="857" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G857" s="1"/>
+      <c r="G857" s="15"/>
     </row>
     <row r="858" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G858" s="1"/>
+      <c r="G858" s="15"/>
     </row>
     <row r="859" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G859" s="1"/>
+      <c r="G859" s="15"/>
     </row>
     <row r="860" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G860" s="1"/>
+      <c r="G860" s="15"/>
     </row>
     <row r="861" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G861" s="1"/>
+      <c r="G861" s="15"/>
     </row>
     <row r="862" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G862" s="1"/>
+      <c r="G862" s="15"/>
     </row>
     <row r="863" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G863" s="1"/>
+      <c r="G863" s="15"/>
     </row>
     <row r="864" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G864" s="1"/>
+      <c r="G864" s="15"/>
     </row>
     <row r="865" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G865" s="1"/>
+      <c r="G865" s="15"/>
     </row>
     <row r="866" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G866" s="1"/>
+      <c r="G866" s="15"/>
     </row>
     <row r="867" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G867" s="1"/>
+      <c r="G867" s="15"/>
     </row>
     <row r="868" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G868" s="1"/>
+      <c r="G868" s="15"/>
     </row>
     <row r="869" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G869" s="1"/>
+      <c r="G869" s="15"/>
     </row>
     <row r="870" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G870" s="1"/>
+      <c r="G870" s="15"/>
     </row>
     <row r="871" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G871" s="1"/>
+      <c r="G871" s="15"/>
     </row>
     <row r="872" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G872" s="1"/>
+      <c r="G872" s="15"/>
     </row>
     <row r="873" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G873" s="1"/>
+      <c r="G873" s="15"/>
     </row>
     <row r="874" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G874" s="1"/>
+      <c r="G874" s="15"/>
     </row>
     <row r="875" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G875" s="1"/>
+      <c r="G875" s="15"/>
     </row>
     <row r="876" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G876" s="1"/>
+      <c r="G876" s="15"/>
     </row>
     <row r="877" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G877" s="1"/>
+      <c r="G877" s="15"/>
     </row>
     <row r="878" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G878" s="1"/>
+      <c r="G878" s="15"/>
     </row>
     <row r="879" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G879" s="1"/>
+      <c r="G879" s="15"/>
     </row>
     <row r="880" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G880" s="1"/>
+      <c r="G880" s="15"/>
     </row>
     <row r="881" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G881" s="1"/>
+      <c r="G881" s="15"/>
     </row>
     <row r="882" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G882" s="1"/>
+      <c r="G882" s="15"/>
     </row>
     <row r="883" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G883" s="1"/>
+      <c r="G883" s="15"/>
     </row>
     <row r="884" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G884" s="1"/>
+      <c r="G884" s="15"/>
     </row>
     <row r="885" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G885" s="1"/>
+      <c r="G885" s="15"/>
     </row>
     <row r="886" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G886" s="1"/>
+      <c r="G886" s="15"/>
     </row>
     <row r="887" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G887" s="1"/>
+      <c r="G887" s="15"/>
     </row>
     <row r="888" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G888" s="1"/>
+      <c r="G888" s="15"/>
     </row>
     <row r="889" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G889" s="1"/>
+      <c r="G889" s="15"/>
     </row>
     <row r="890" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G890" s="1"/>
+      <c r="G890" s="15"/>
     </row>
     <row r="891" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G891" s="1"/>
+      <c r="G891" s="15"/>
     </row>
     <row r="892" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G892" s="1"/>
+      <c r="G892" s="15"/>
     </row>
     <row r="893" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G893" s="1"/>
+      <c r="G893" s="15"/>
     </row>
     <row r="894" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G894" s="1"/>
+      <c r="G894" s="15"/>
     </row>
     <row r="895" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G895" s="1"/>
+      <c r="G895" s="15"/>
     </row>
     <row r="896" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G896" s="1"/>
+      <c r="G896" s="15"/>
     </row>
     <row r="897" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G897" s="1"/>
+      <c r="G897" s="15"/>
     </row>
     <row r="898" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G898" s="1"/>
+      <c r="G898" s="15"/>
     </row>
     <row r="899" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G899" s="1"/>
+      <c r="G899" s="15"/>
     </row>
     <row r="900" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G900" s="1"/>
+      <c r="G900" s="15"/>
     </row>
     <row r="901" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G901" s="1"/>
+      <c r="G901" s="15"/>
     </row>
     <row r="902" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G902" s="1"/>
+      <c r="G902" s="15"/>
     </row>
     <row r="903" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G903" s="1"/>
+      <c r="G903" s="15"/>
     </row>
     <row r="904" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G904" s="1"/>
+      <c r="G904" s="15"/>
     </row>
     <row r="905" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G905" s="1"/>
+      <c r="G905" s="15"/>
     </row>
     <row r="906" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G906" s="1"/>
+      <c r="G906" s="15"/>
     </row>
     <row r="907" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G907" s="1"/>
+      <c r="G907" s="15"/>
     </row>
     <row r="908" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G908" s="1"/>
+      <c r="G908" s="15"/>
     </row>
     <row r="909" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G909" s="1"/>
+      <c r="G909" s="15"/>
     </row>
     <row r="910" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G910" s="1"/>
+      <c r="G910" s="15"/>
     </row>
     <row r="911" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G911" s="1"/>
+      <c r="G911" s="15"/>
     </row>
     <row r="912" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G912" s="1"/>
+      <c r="G912" s="15"/>
     </row>
     <row r="913" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G913" s="1"/>
+      <c r="G913" s="15"/>
     </row>
     <row r="914" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G914" s="1"/>
+      <c r="G914" s="15"/>
     </row>
     <row r="915" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G915" s="1"/>
+      <c r="G915" s="15"/>
     </row>
     <row r="916" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G916" s="1"/>
+      <c r="G916" s="15"/>
     </row>
     <row r="917" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G917" s="1"/>
+      <c r="G917" s="15"/>
     </row>
     <row r="918" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G918" s="1"/>
+      <c r="G918" s="15"/>
     </row>
     <row r="919" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G919" s="1"/>
+      <c r="G919" s="15"/>
     </row>
     <row r="920" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G920" s="1"/>
+      <c r="G920" s="15"/>
     </row>
     <row r="921" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G921" s="1"/>
+      <c r="G921" s="15"/>
     </row>
     <row r="922" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G922" s="1"/>
+      <c r="G922" s="15"/>
     </row>
     <row r="923" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G923" s="1"/>
+      <c r="G923" s="15"/>
     </row>
     <row r="924" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G924" s="1"/>
+      <c r="G924" s="15"/>
     </row>
     <row r="925" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G925" s="1"/>
+      <c r="G925" s="15"/>
     </row>
     <row r="926" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G926" s="1"/>
+      <c r="G926" s="15"/>
     </row>
     <row r="927" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G927" s="1"/>
+      <c r="G927" s="15"/>
     </row>
     <row r="928" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G928" s="1"/>
+      <c r="G928" s="15"/>
     </row>
     <row r="929" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G929" s="1"/>
+      <c r="G929" s="15"/>
     </row>
     <row r="930" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G930" s="1"/>
+      <c r="G930" s="15"/>
     </row>
     <row r="931" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G931" s="1"/>
+      <c r="G931" s="15"/>
     </row>
     <row r="932" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G932" s="1"/>
+      <c r="G932" s="15"/>
     </row>
     <row r="933" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G933" s="1"/>
+      <c r="G933" s="15"/>
     </row>
     <row r="934" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G934" s="1"/>
+      <c r="G934" s="15"/>
     </row>
     <row r="935" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G935" s="1"/>
+      <c r="G935" s="15"/>
     </row>
     <row r="936" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G936" s="1"/>
+      <c r="G936" s="15"/>
     </row>
     <row r="937" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G937" s="1"/>
+      <c r="G937" s="15"/>
     </row>
     <row r="938" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G938" s="1"/>
+      <c r="G938" s="15"/>
     </row>
     <row r="939" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G939" s="1"/>
+      <c r="G939" s="15"/>
     </row>
     <row r="940" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G940" s="1"/>
+      <c r="G940" s="15"/>
     </row>
     <row r="941" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G941" s="1"/>
+      <c r="G941" s="15"/>
     </row>
     <row r="942" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G942" s="1"/>
+      <c r="G942" s="15"/>
     </row>
     <row r="943" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G943" s="1"/>
+      <c r="G943" s="15"/>
     </row>
     <row r="944" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G944" s="1"/>
+      <c r="G944" s="15"/>
     </row>
     <row r="945" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G945" s="1"/>
+      <c r="G945" s="15"/>
     </row>
     <row r="946" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G946" s="1"/>
+      <c r="G946" s="15"/>
     </row>
     <row r="947" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G947" s="1"/>
+      <c r="G947" s="15"/>
     </row>
     <row r="948" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G948" s="1"/>
+      <c r="G948" s="15"/>
     </row>
     <row r="949" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G949" s="1"/>
+      <c r="G949" s="15"/>
     </row>
     <row r="950" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G950" s="1"/>
+      <c r="G950" s="15"/>
     </row>
     <row r="951" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G951" s="1"/>
+      <c r="G951" s="15"/>
     </row>
     <row r="952" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G952" s="1"/>
+      <c r="G952" s="15"/>
     </row>
     <row r="953" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G953" s="1"/>
+      <c r="G953" s="15"/>
     </row>
     <row r="954" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G954" s="1"/>
+      <c r="G954" s="15"/>
     </row>
     <row r="955" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G955" s="1"/>
+      <c r="G955" s="15"/>
     </row>
     <row r="956" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G956" s="1"/>
+      <c r="G956" s="15"/>
     </row>
     <row r="957" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G957" s="1"/>
+      <c r="G957" s="15"/>
     </row>
     <row r="958" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G958" s="1"/>
+      <c r="G958" s="15"/>
     </row>
     <row r="959" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G959" s="1"/>
+      <c r="G959" s="15"/>
     </row>
     <row r="960" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G960" s="1"/>
+      <c r="G960" s="15"/>
     </row>
     <row r="961" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G961" s="1"/>
+      <c r="G961" s="15"/>
     </row>
     <row r="962" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G962" s="1"/>
+      <c r="G962" s="15"/>
     </row>
     <row r="963" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G963" s="1"/>
+      <c r="G963" s="15"/>
     </row>
     <row r="964" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G964" s="1"/>
+      <c r="G964" s="15"/>
     </row>
     <row r="965" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G965" s="1"/>
+      <c r="G965" s="15"/>
     </row>
     <row r="966" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G966" s="1"/>
+      <c r="G966" s="15"/>
     </row>
     <row r="967" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G967" s="1"/>
+      <c r="G967" s="15"/>
     </row>
     <row r="968" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G968" s="1"/>
+      <c r="G968" s="15"/>
     </row>
     <row r="969" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G969" s="1"/>
+      <c r="G969" s="15"/>
     </row>
     <row r="970" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G970" s="1"/>
+      <c r="G970" s="15"/>
     </row>
     <row r="971" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G971" s="1"/>
+      <c r="G971" s="15"/>
     </row>
     <row r="972" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G972" s="1"/>
+      <c r="G972" s="15"/>
     </row>
     <row r="973" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G973" s="1"/>
+      <c r="G973" s="15"/>
     </row>
     <row r="974" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G974" s="1"/>
+      <c r="G974" s="15"/>
     </row>
     <row r="975" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G975" s="1"/>
+      <c r="G975" s="15"/>
     </row>
     <row r="976" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G976" s="1"/>
+      <c r="G976" s="15"/>
     </row>
     <row r="977" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G977" s="1"/>
+      <c r="G977" s="15"/>
     </row>
     <row r="978" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G978" s="1"/>
+      <c r="G978" s="15"/>
     </row>
     <row r="979" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G979" s="1"/>
+      <c r="G979" s="15"/>
     </row>
     <row r="980" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G980" s="1"/>
+      <c r="G980" s="15"/>
     </row>
     <row r="981" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G981" s="1"/>
+      <c r="G981" s="15"/>
     </row>
     <row r="982" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G982" s="1"/>
+      <c r="G982" s="15"/>
     </row>
     <row r="983" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G983" s="1"/>
+      <c r="G983" s="15"/>
     </row>
     <row r="984" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G984" s="1"/>
+      <c r="G984" s="15"/>
     </row>
     <row r="985" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G985" s="1"/>
+      <c r="G985" s="15"/>
     </row>
     <row r="986" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G986" s="1"/>
+      <c r="G986" s="15"/>
     </row>
     <row r="987" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G987" s="1"/>
+      <c r="G987" s="15"/>
     </row>
     <row r="988" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G988" s="1"/>
+      <c r="G988" s="15"/>
     </row>
     <row r="989" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G989" s="1"/>
+      <c r="G989" s="15"/>
     </row>
     <row r="990" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G990" s="1"/>
+      <c r="G990" s="15"/>
     </row>
     <row r="991" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G991" s="1"/>
+      <c r="G991" s="15"/>
     </row>
     <row r="992" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G992" s="1"/>
+      <c r="G992" s="15"/>
     </row>
     <row r="993" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G993" s="1"/>
+      <c r="G993" s="15"/>
     </row>
     <row r="994" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G994" s="1"/>
+      <c r="G994" s="15"/>
     </row>
     <row r="995" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G995" s="1"/>
+      <c r="G995" s="15"/>
     </row>
     <row r="996" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G996" s="1"/>
+      <c r="G996" s="15"/>
     </row>
     <row r="997" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G997" s="1"/>
+      <c r="G997" s="15"/>
     </row>
     <row r="998" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G998" s="1"/>
+      <c r="G998" s="15"/>
     </row>
     <row r="999" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G999" s="1"/>
+      <c r="G999" s="15"/>
     </row>
     <row r="1000" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G1000" s="1"/>
+      <c r="G1000" s="15"/>
     </row>
     <row r="1001" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G1001" s="1"/>
+      <c r="G1001" s="15"/>
     </row>
     <row r="1002" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G1002" s="1"/>
+      <c r="G1002" s="15"/>
     </row>
     <row r="1003" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G1003" s="1"/>
+      <c r="G1003" s="15"/>
     </row>
     <row r="1004" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G1004" s="1"/>
+      <c r="G1004" s="15"/>
     </row>
     <row r="1005" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G1005" s="1"/>
+      <c r="G1005" s="15"/>
     </row>
     <row r="1006" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G1006" s="1"/>
+      <c r="G1006" s="15"/>
     </row>
     <row r="1007" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G1007" s="1"/>
+      <c r="G1007" s="15"/>
     </row>
     <row r="1008" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G1008" s="1"/>
+      <c r="G1008" s="15"/>
     </row>
     <row r="1009" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G1009" s="1"/>
+      <c r="G1009" s="15"/>
     </row>
     <row r="1010" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G1010" s="1"/>
+      <c r="G1010" s="15"/>
     </row>
     <row r="1011" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G1011" s="1"/>
+      <c r="G1011" s="15"/>
     </row>
     <row r="1012" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G1012" s="1"/>
+      <c r="G1012" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:M16"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A2:B2"/>
@@ -7834,23 +7859,8 @@
     <mergeCell ref="G1:G1012"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>